--- a/machine_config.xlsx
+++ b/machine_config.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\r03\Desktop\mitsubishi-fx5-try\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{706A6E82-E813-4CAD-BD15-D517C36CA8D2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{46801B44-591F-40A9-BFFE-32D2C1E7DFB8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{1BF7E079-436B-4EF4-9EEA-F82FDA08E9C8}"/>
   </bookViews>
@@ -32,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="20" uniqueCount="15">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="24" uniqueCount="19">
   <si>
     <t>機台名稱</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -91,6 +91,22 @@
   </si>
   <si>
     <t>10.10.1.49:5000</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>MX5</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>10.10.1.5:5000</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>D3000</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>D3</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -465,10 +481,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{96A82F3B-0739-4B46-8DC5-C9EE2B40733D}">
-  <dimension ref="A1:J3"/>
+  <dimension ref="A1:J4"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H19" sqref="H19"/>
+      <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.25"/>
@@ -517,43 +533,31 @@
       </c>
     </row>
     <row r="2" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A2" t="s">
-        <v>6</v>
+      <c r="A2" s="1" t="s">
+        <v>15</v>
       </c>
       <c r="B2" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="C2" t="s">
-        <v>8</v>
+        <v>17</v>
       </c>
       <c r="D2">
         <v>2</v>
       </c>
       <c r="E2" t="s">
-        <v>9</v>
+        <v>18</v>
       </c>
       <c r="F2">
         <v>0</v>
-      </c>
-      <c r="G2" t="s">
-        <v>10</v>
-      </c>
-      <c r="H2">
-        <v>0</v>
-      </c>
-      <c r="I2" t="s">
-        <v>11</v>
-      </c>
-      <c r="J2">
-        <v>2</v>
       </c>
     </row>
     <row r="3" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="B3" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="C3" t="s">
         <v>8</v>
@@ -565,6 +569,38 @@
         <v>9</v>
       </c>
       <c r="F3">
+        <v>0</v>
+      </c>
+      <c r="G3" t="s">
+        <v>10</v>
+      </c>
+      <c r="H3">
+        <v>0</v>
+      </c>
+      <c r="I3" t="s">
+        <v>11</v>
+      </c>
+      <c r="J3">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="4" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>7</v>
+      </c>
+      <c r="B4" t="s">
+        <v>13</v>
+      </c>
+      <c r="C4" t="s">
+        <v>8</v>
+      </c>
+      <c r="D4">
+        <v>2</v>
+      </c>
+      <c r="E4" t="s">
+        <v>9</v>
+      </c>
+      <c r="F4">
         <v>0</v>
       </c>
     </row>

--- a/machine_config.xlsx
+++ b/machine_config.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\r03\Desktop\mitsubishi-fx5-try\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{46801B44-591F-40A9-BFFE-32D2C1E7DFB8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A39CDF25-9AC7-4A2D-B0EF-D48E695BFF4F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{1BF7E079-436B-4EF4-9EEA-F82FDA08E9C8}"/>
   </bookViews>
@@ -32,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="24" uniqueCount="19">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="30" uniqueCount="23">
   <si>
     <t>機台名稱</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -94,11 +94,11 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>MX5</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>10.10.1.5:5000</t>
+    <t>MX14</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>10.10.1.14:5000</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -107,6 +107,22 @@
   </si>
   <si>
     <t>D3</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>option1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>option2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>D20</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>D22</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -481,10 +497,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{96A82F3B-0739-4B46-8DC5-C9EE2B40733D}">
-  <dimension ref="A1:J4"/>
+  <dimension ref="A1:N4"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B2" sqref="B2"/>
+      <selection activeCell="L9" sqref="L9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.25"/>
@@ -500,7 +516,7 @@
     <col min="9" max="9" width="13.875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -531,8 +547,20 @@
       <c r="J1" t="s">
         <v>5</v>
       </c>
+      <c r="K1" t="s">
+        <v>19</v>
+      </c>
+      <c r="L1" t="s">
+        <v>5</v>
+      </c>
+      <c r="M1" t="s">
+        <v>20</v>
+      </c>
+      <c r="N1" t="s">
+        <v>5</v>
+      </c>
     </row>
-    <row r="2" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
         <v>15</v>
       </c>
@@ -551,8 +579,20 @@
       <c r="F2">
         <v>0</v>
       </c>
+      <c r="K2" t="s">
+        <v>21</v>
+      </c>
+      <c r="L2">
+        <v>2</v>
+      </c>
+      <c r="M2" t="s">
+        <v>22</v>
+      </c>
+      <c r="N2">
+        <v>2</v>
+      </c>
     </row>
-    <row r="3" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>6</v>
       </c>
@@ -584,7 +624,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="4" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>7</v>
       </c>

--- a/machine_config.xlsx
+++ b/machine_config.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24827"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25330"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\r03\Desktop\mitsubishi-fx5-try\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A39CDF25-9AC7-4A2D-B0EF-D48E695BFF4F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3101C2F2-046B-4E34-A235-FBAA0088455B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{1BF7E079-436B-4EF4-9EEA-F82FDA08E9C8}"/>
   </bookViews>
@@ -32,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="30" uniqueCount="23">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="38" uniqueCount="26">
   <si>
     <t>機台名稱</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -106,10 +106,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>D3</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>option1</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -123,6 +119,22 @@
   </si>
   <si>
     <t>D22</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>MX13</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>MX5</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>10.10.1.5:5000</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>10.10.1.13:5000</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -497,10 +509,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{96A82F3B-0739-4B46-8DC5-C9EE2B40733D}">
-  <dimension ref="A1:N4"/>
+  <dimension ref="A1:N6"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="L9" sqref="L9"/>
+      <selection activeCell="I17" sqref="I17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.25"/>
@@ -548,13 +560,13 @@
         <v>5</v>
       </c>
       <c r="K1" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="L1" t="s">
         <v>5</v>
       </c>
       <c r="M1" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="N1" t="s">
         <v>5</v>
@@ -562,10 +574,10 @@
     </row>
     <row r="2" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
-        <v>15</v>
+        <v>23</v>
       </c>
       <c r="B2" t="s">
-        <v>16</v>
+        <v>24</v>
       </c>
       <c r="C2" t="s">
         <v>17</v>
@@ -574,33 +586,21 @@
         <v>2</v>
       </c>
       <c r="E2" t="s">
-        <v>18</v>
+        <v>9</v>
       </c>
       <c r="F2">
         <v>0</v>
       </c>
-      <c r="K2" t="s">
-        <v>21</v>
-      </c>
-      <c r="L2">
-        <v>2</v>
-      </c>
-      <c r="M2" t="s">
-        <v>22</v>
-      </c>
-      <c r="N2">
-        <v>2</v>
-      </c>
     </row>
     <row r="3" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A3" t="s">
-        <v>6</v>
+      <c r="A3" s="1" t="s">
+        <v>22</v>
       </c>
       <c r="B3" t="s">
-        <v>14</v>
+        <v>25</v>
       </c>
       <c r="C3" t="s">
-        <v>8</v>
+        <v>17</v>
       </c>
       <c r="D3">
         <v>2</v>
@@ -611,28 +611,16 @@
       <c r="F3">
         <v>0</v>
       </c>
-      <c r="G3" t="s">
-        <v>10</v>
-      </c>
-      <c r="H3">
-        <v>0</v>
-      </c>
-      <c r="I3" t="s">
-        <v>11</v>
-      </c>
-      <c r="J3">
-        <v>2</v>
-      </c>
     </row>
     <row r="4" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A4" t="s">
-        <v>7</v>
+      <c r="A4" s="1" t="s">
+        <v>15</v>
       </c>
       <c r="B4" t="s">
-        <v>13</v>
+        <v>16</v>
       </c>
       <c r="C4" t="s">
-        <v>8</v>
+        <v>17</v>
       </c>
       <c r="D4">
         <v>2</v>
@@ -641,6 +629,70 @@
         <v>9</v>
       </c>
       <c r="F4">
+        <v>0</v>
+      </c>
+      <c r="K4" t="s">
+        <v>20</v>
+      </c>
+      <c r="L4">
+        <v>2</v>
+      </c>
+      <c r="M4" t="s">
+        <v>21</v>
+      </c>
+      <c r="N4">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="5" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
+        <v>6</v>
+      </c>
+      <c r="B5" t="s">
+        <v>14</v>
+      </c>
+      <c r="C5" t="s">
+        <v>8</v>
+      </c>
+      <c r="D5">
+        <v>2</v>
+      </c>
+      <c r="E5" t="s">
+        <v>9</v>
+      </c>
+      <c r="F5">
+        <v>0</v>
+      </c>
+      <c r="G5" t="s">
+        <v>10</v>
+      </c>
+      <c r="H5">
+        <v>0</v>
+      </c>
+      <c r="I5" t="s">
+        <v>11</v>
+      </c>
+      <c r="J5">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="6" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
+        <v>7</v>
+      </c>
+      <c r="B6" t="s">
+        <v>13</v>
+      </c>
+      <c r="C6" t="s">
+        <v>8</v>
+      </c>
+      <c r="D6">
+        <v>2</v>
+      </c>
+      <c r="E6" t="s">
+        <v>9</v>
+      </c>
+      <c r="F6">
         <v>0</v>
       </c>
     </row>

--- a/machine_config.xlsx
+++ b/machine_config.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\r03\Desktop\mitsubishi-fx5-try\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3101C2F2-046B-4E34-A235-FBAA0088455B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{41A5DA01-1187-4574-92D2-2F12A5413440}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{1BF7E079-436B-4EF4-9EEA-F82FDA08E9C8}"/>
   </bookViews>
@@ -32,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="38" uniqueCount="26">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="40" uniqueCount="26">
   <si>
     <t>機台名稱</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -512,7 +512,7 @@
   <dimension ref="A1:N6"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I17" sqref="I17"/>
+      <selection activeCell="N3" sqref="N3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.25"/>
@@ -591,6 +591,18 @@
       <c r="F2">
         <v>0</v>
       </c>
+      <c r="K2" t="s">
+        <v>20</v>
+      </c>
+      <c r="L2">
+        <v>2</v>
+      </c>
+      <c r="M2" t="s">
+        <v>21</v>
+      </c>
+      <c r="N2">
+        <v>2</v>
+      </c>
     </row>
     <row r="3" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">

--- a/machine_config.xlsx
+++ b/machine_config.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\r03\Desktop\mitsubishi-fx5-try\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{41A5DA01-1187-4574-92D2-2F12A5413440}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{12D5AF8E-CEE4-4DC0-B583-B6D7BF6E9677}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{1BF7E079-436B-4EF4-9EEA-F82FDA08E9C8}"/>
   </bookViews>
@@ -32,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="40" uniqueCount="26">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="48" uniqueCount="30">
   <si>
     <t>機台名稱</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -135,6 +135,22 @@
   </si>
   <si>
     <t>10.10.1.13:5000</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>AI1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>AI2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>10.10.1.46:5000</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>10.10.1.47:5000</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -509,10 +525,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{96A82F3B-0739-4B46-8DC5-C9EE2B40733D}">
-  <dimension ref="A1:N6"/>
+  <dimension ref="A1:N8"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="N3" sqref="N3"/>
+      <selection activeCell="F7" sqref="F7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.25"/>
@@ -657,11 +673,11 @@
       </c>
     </row>
     <row r="5" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A5" t="s">
-        <v>6</v>
+      <c r="A5" s="1" t="s">
+        <v>26</v>
       </c>
       <c r="B5" t="s">
-        <v>14</v>
+        <v>28</v>
       </c>
       <c r="C5" t="s">
         <v>8</v>
@@ -675,25 +691,13 @@
       <c r="F5">
         <v>0</v>
       </c>
-      <c r="G5" t="s">
-        <v>10</v>
-      </c>
-      <c r="H5">
-        <v>0</v>
-      </c>
-      <c r="I5" t="s">
-        <v>11</v>
-      </c>
-      <c r="J5">
-        <v>2</v>
-      </c>
     </row>
     <row r="6" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A6" t="s">
-        <v>7</v>
+      <c r="A6" s="1" t="s">
+        <v>27</v>
       </c>
       <c r="B6" t="s">
-        <v>13</v>
+        <v>29</v>
       </c>
       <c r="C6" t="s">
         <v>8</v>
@@ -705,6 +709,58 @@
         <v>9</v>
       </c>
       <c r="F6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A7" t="s">
+        <v>6</v>
+      </c>
+      <c r="B7" t="s">
+        <v>14</v>
+      </c>
+      <c r="C7" t="s">
+        <v>8</v>
+      </c>
+      <c r="D7">
+        <v>2</v>
+      </c>
+      <c r="E7" t="s">
+        <v>9</v>
+      </c>
+      <c r="F7">
+        <v>0</v>
+      </c>
+      <c r="G7" t="s">
+        <v>10</v>
+      </c>
+      <c r="H7">
+        <v>0</v>
+      </c>
+      <c r="I7" t="s">
+        <v>11</v>
+      </c>
+      <c r="J7">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="8" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A8" t="s">
+        <v>7</v>
+      </c>
+      <c r="B8" t="s">
+        <v>13</v>
+      </c>
+      <c r="C8" t="s">
+        <v>8</v>
+      </c>
+      <c r="D8">
+        <v>2</v>
+      </c>
+      <c r="E8" t="s">
+        <v>9</v>
+      </c>
+      <c r="F8">
         <v>0</v>
       </c>
     </row>

--- a/machine_config.xlsx
+++ b/machine_config.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\r03\Desktop\mitsubishi-fx5-try\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{12D5AF8E-CEE4-4DC0-B583-B6D7BF6E9677}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2C5B2BF5-EC70-411E-9303-A902ADB73511}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{1BF7E079-436B-4EF4-9EEA-F82FDA08E9C8}"/>
   </bookViews>
@@ -528,7 +528,7 @@
   <dimension ref="A1:N8"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F7" sqref="F7"/>
+      <selection activeCell="N13" sqref="N13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.25"/>
@@ -542,6 +542,7 @@
     <col min="7" max="7" width="14.75" customWidth="1"/>
     <col min="8" max="8" width="19.125" customWidth="1"/>
     <col min="9" max="9" width="13.875" customWidth="1"/>
+    <col min="12" max="12" width="34.5" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:14" x14ac:dyDescent="0.25">
@@ -611,13 +612,13 @@
         <v>20</v>
       </c>
       <c r="L2">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="M2" t="s">
         <v>21</v>
       </c>
       <c r="N2">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3" spans="1:14" x14ac:dyDescent="0.25">
@@ -663,13 +664,13 @@
         <v>20</v>
       </c>
       <c r="L4">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="M4" t="s">
         <v>21</v>
       </c>
       <c r="N4">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="5" spans="1:14" x14ac:dyDescent="0.25">

--- a/machine_config.xlsx
+++ b/machine_config.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\r03\Desktop\mitsubishi-fx5-try\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2C5B2BF5-EC70-411E-9303-A902ADB73511}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1CB4A9F6-E7CD-4BCD-941F-C461294930F9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{1BF7E079-436B-4EF4-9EEA-F82FDA08E9C8}"/>
   </bookViews>
@@ -528,7 +528,7 @@
   <dimension ref="A1:N8"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="N13" sqref="N13"/>
+      <selection activeCell="N9" sqref="N9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.25"/>
@@ -612,13 +612,13 @@
         <v>20</v>
       </c>
       <c r="L2">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="M2" t="s">
         <v>21</v>
       </c>
       <c r="N2">
-        <v>0</v>
+        <v>3</v>
       </c>
     </row>
     <row r="3" spans="1:14" x14ac:dyDescent="0.25">
@@ -664,13 +664,13 @@
         <v>20</v>
       </c>
       <c r="L4">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="M4" t="s">
         <v>21</v>
       </c>
       <c r="N4">
-        <v>0</v>
+        <v>3</v>
       </c>
     </row>
     <row r="5" spans="1:14" x14ac:dyDescent="0.25">

--- a/machine_config.xlsx
+++ b/machine_config.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\r03\Desktop\mitsubishi-fx5-try\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1CB4A9F6-E7CD-4BCD-941F-C461294930F9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3EA6E995-A4B2-42A4-BF30-492C2B1D9C5E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{1BF7E079-436B-4EF4-9EEA-F82FDA08E9C8}"/>
   </bookViews>
@@ -32,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="48" uniqueCount="30">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="80" uniqueCount="46">
   <si>
     <t>機台名稱</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -151,6 +151,64 @@
   </si>
   <si>
     <t>10.10.1.47:5000</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>AE1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>AE2</t>
+  </si>
+  <si>
+    <t>AE5</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>AE6</t>
+  </si>
+  <si>
+    <t>AE7</t>
+  </si>
+  <si>
+    <t>AE8</t>
+  </si>
+  <si>
+    <t>AE9</t>
+  </si>
+  <si>
+    <t>AE10</t>
+  </si>
+  <si>
+    <t>10.10.1.36:5000</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>10.10.1.37:5000</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>10.10.1.40:5000</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>10.10.1.41:5000</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>10.10.1.42:5000</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>10.10.1.43:5000</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>10.10.1.44:5000</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>10.10.1.45:5000</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -525,10 +583,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{96A82F3B-0739-4B46-8DC5-C9EE2B40733D}">
-  <dimension ref="A1:N8"/>
+  <dimension ref="A1:N16"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="N9" sqref="N9"/>
+      <selection activeCell="C8" sqref="C8:F15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.25"/>
@@ -747,21 +805,181 @@
     </row>
     <row r="8" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
+        <v>30</v>
+      </c>
+      <c r="B8" t="s">
+        <v>38</v>
+      </c>
+      <c r="C8" t="s">
+        <v>8</v>
+      </c>
+      <c r="D8">
+        <v>2</v>
+      </c>
+      <c r="E8" t="s">
+        <v>9</v>
+      </c>
+      <c r="F8">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A9" t="s">
+        <v>31</v>
+      </c>
+      <c r="B9" t="s">
+        <v>39</v>
+      </c>
+      <c r="C9" t="s">
+        <v>8</v>
+      </c>
+      <c r="D9">
+        <v>2</v>
+      </c>
+      <c r="E9" t="s">
+        <v>9</v>
+      </c>
+      <c r="F9">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A10" t="s">
+        <v>32</v>
+      </c>
+      <c r="B10" t="s">
+        <v>40</v>
+      </c>
+      <c r="C10" t="s">
+        <v>8</v>
+      </c>
+      <c r="D10">
+        <v>2</v>
+      </c>
+      <c r="E10" t="s">
+        <v>9</v>
+      </c>
+      <c r="F10">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A11" t="s">
+        <v>33</v>
+      </c>
+      <c r="B11" t="s">
+        <v>41</v>
+      </c>
+      <c r="C11" t="s">
+        <v>8</v>
+      </c>
+      <c r="D11">
+        <v>2</v>
+      </c>
+      <c r="E11" t="s">
+        <v>9</v>
+      </c>
+      <c r="F11">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A12" t="s">
+        <v>34</v>
+      </c>
+      <c r="B12" t="s">
+        <v>42</v>
+      </c>
+      <c r="C12" t="s">
+        <v>8</v>
+      </c>
+      <c r="D12">
+        <v>2</v>
+      </c>
+      <c r="E12" t="s">
+        <v>9</v>
+      </c>
+      <c r="F12">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A13" t="s">
+        <v>35</v>
+      </c>
+      <c r="B13" t="s">
+        <v>43</v>
+      </c>
+      <c r="C13" t="s">
+        <v>8</v>
+      </c>
+      <c r="D13">
+        <v>2</v>
+      </c>
+      <c r="E13" t="s">
+        <v>9</v>
+      </c>
+      <c r="F13">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A14" t="s">
+        <v>36</v>
+      </c>
+      <c r="B14" t="s">
+        <v>44</v>
+      </c>
+      <c r="C14" t="s">
+        <v>8</v>
+      </c>
+      <c r="D14">
+        <v>2</v>
+      </c>
+      <c r="E14" t="s">
+        <v>9</v>
+      </c>
+      <c r="F14">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A15" t="s">
+        <v>37</v>
+      </c>
+      <c r="B15" t="s">
+        <v>45</v>
+      </c>
+      <c r="C15" t="s">
+        <v>8</v>
+      </c>
+      <c r="D15">
+        <v>2</v>
+      </c>
+      <c r="E15" t="s">
+        <v>9</v>
+      </c>
+      <c r="F15">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A16" t="s">
         <v>7</v>
       </c>
-      <c r="B8" t="s">
+      <c r="B16" t="s">
         <v>13</v>
       </c>
-      <c r="C8" t="s">
-        <v>8</v>
-      </c>
-      <c r="D8">
-        <v>2</v>
-      </c>
-      <c r="E8" t="s">
-        <v>9</v>
-      </c>
-      <c r="F8">
+      <c r="C16" t="s">
+        <v>8</v>
+      </c>
+      <c r="D16">
+        <v>2</v>
+      </c>
+      <c r="E16" t="s">
+        <v>9</v>
+      </c>
+      <c r="F16">
         <v>0</v>
       </c>
     </row>

--- a/machine_config.xlsx
+++ b/machine_config.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\r03\Desktop\mitsubishi-fx5-try\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3EA6E995-A4B2-42A4-BF30-492C2B1D9C5E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2975B8D6-BC7A-4000-BD50-9F706B4667FD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{1BF7E079-436B-4EF4-9EEA-F82FDA08E9C8}"/>
   </bookViews>
@@ -32,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="80" uniqueCount="46">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="96" uniqueCount="55">
   <si>
     <t>機台名稱</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -209,6 +209,39 @@
   </si>
   <si>
     <t>10.10.1.45:5000</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ME8</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ME9</t>
+  </si>
+  <si>
+    <t>ME10</t>
+  </si>
+  <si>
+    <t>ME11</t>
+  </si>
+  <si>
+    <t>10.10.1.22:5000</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>10.10.1.23:5000</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>10.10.1.24:5000</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>10.10.1.25:5000</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>D600</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -583,10 +616,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{96A82F3B-0739-4B46-8DC5-C9EE2B40733D}">
-  <dimension ref="A1:N16"/>
+  <dimension ref="A1:N20"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C8" sqref="C8:F15"/>
+      <selection activeCell="G7" sqref="G7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.25"/>
@@ -733,13 +766,13 @@
     </row>
     <row r="5" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A5" s="1" t="s">
-        <v>26</v>
+        <v>46</v>
       </c>
       <c r="B5" t="s">
-        <v>28</v>
+        <v>50</v>
       </c>
       <c r="C5" t="s">
-        <v>8</v>
+        <v>54</v>
       </c>
       <c r="D5">
         <v>2</v>
@@ -753,13 +786,13 @@
     </row>
     <row r="6" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A6" s="1" t="s">
-        <v>27</v>
+        <v>47</v>
       </c>
       <c r="B6" t="s">
-        <v>29</v>
+        <v>51</v>
       </c>
       <c r="C6" t="s">
-        <v>8</v>
+        <v>54</v>
       </c>
       <c r="D6">
         <v>2</v>
@@ -772,14 +805,14 @@
       </c>
     </row>
     <row r="7" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A7" t="s">
-        <v>6</v>
+      <c r="A7" s="1" t="s">
+        <v>48</v>
       </c>
       <c r="B7" t="s">
-        <v>14</v>
+        <v>52</v>
       </c>
       <c r="C7" t="s">
-        <v>8</v>
+        <v>54</v>
       </c>
       <c r="D7">
         <v>2</v>
@@ -790,28 +823,16 @@
       <c r="F7">
         <v>0</v>
       </c>
-      <c r="G7" t="s">
-        <v>10</v>
-      </c>
-      <c r="H7">
-        <v>0</v>
-      </c>
-      <c r="I7" t="s">
-        <v>11</v>
-      </c>
-      <c r="J7">
-        <v>2</v>
-      </c>
     </row>
     <row r="8" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A8" t="s">
-        <v>30</v>
+      <c r="A8" s="1" t="s">
+        <v>49</v>
       </c>
       <c r="B8" t="s">
-        <v>38</v>
+        <v>53</v>
       </c>
       <c r="C8" t="s">
-        <v>8</v>
+        <v>54</v>
       </c>
       <c r="D8">
         <v>2</v>
@@ -825,10 +846,10 @@
     </row>
     <row r="9" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
-        <v>31</v>
+        <v>7</v>
       </c>
       <c r="B9" t="s">
-        <v>39</v>
+        <v>13</v>
       </c>
       <c r="C9" t="s">
         <v>8</v>
@@ -844,11 +865,11 @@
       </c>
     </row>
     <row r="10" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A10" t="s">
-        <v>32</v>
+      <c r="A10" s="1" t="s">
+        <v>26</v>
       </c>
       <c r="B10" t="s">
-        <v>40</v>
+        <v>28</v>
       </c>
       <c r="C10" t="s">
         <v>8</v>
@@ -864,11 +885,11 @@
       </c>
     </row>
     <row r="11" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A11" t="s">
-        <v>33</v>
+      <c r="A11" s="1" t="s">
+        <v>27</v>
       </c>
       <c r="B11" t="s">
-        <v>41</v>
+        <v>29</v>
       </c>
       <c r="C11" t="s">
         <v>8</v>
@@ -885,10 +906,10 @@
     </row>
     <row r="12" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
-        <v>34</v>
+        <v>6</v>
       </c>
       <c r="B12" t="s">
-        <v>42</v>
+        <v>14</v>
       </c>
       <c r="C12" t="s">
         <v>8</v>
@@ -902,13 +923,25 @@
       <c r="F12">
         <v>0</v>
       </c>
+      <c r="G12" t="s">
+        <v>10</v>
+      </c>
+      <c r="H12">
+        <v>0</v>
+      </c>
+      <c r="I12" t="s">
+        <v>11</v>
+      </c>
+      <c r="J12">
+        <v>2</v>
+      </c>
     </row>
     <row r="13" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
-        <v>35</v>
+        <v>30</v>
       </c>
       <c r="B13" t="s">
-        <v>43</v>
+        <v>38</v>
       </c>
       <c r="C13" t="s">
         <v>8</v>
@@ -925,10 +958,10 @@
     </row>
     <row r="14" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
-        <v>36</v>
+        <v>31</v>
       </c>
       <c r="B14" t="s">
-        <v>44</v>
+        <v>39</v>
       </c>
       <c r="C14" t="s">
         <v>8</v>
@@ -945,10 +978,10 @@
     </row>
     <row r="15" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
-        <v>37</v>
+        <v>32</v>
       </c>
       <c r="B15" t="s">
-        <v>45</v>
+        <v>40</v>
       </c>
       <c r="C15" t="s">
         <v>8</v>
@@ -965,10 +998,10 @@
     </row>
     <row r="16" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
-        <v>7</v>
+        <v>33</v>
       </c>
       <c r="B16" t="s">
-        <v>13</v>
+        <v>41</v>
       </c>
       <c r="C16" t="s">
         <v>8</v>
@@ -980,6 +1013,86 @@
         <v>9</v>
       </c>
       <c r="F16">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="17" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A17" t="s">
+        <v>34</v>
+      </c>
+      <c r="B17" t="s">
+        <v>42</v>
+      </c>
+      <c r="C17" t="s">
+        <v>8</v>
+      </c>
+      <c r="D17">
+        <v>2</v>
+      </c>
+      <c r="E17" t="s">
+        <v>9</v>
+      </c>
+      <c r="F17">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A18" t="s">
+        <v>35</v>
+      </c>
+      <c r="B18" t="s">
+        <v>43</v>
+      </c>
+      <c r="C18" t="s">
+        <v>8</v>
+      </c>
+      <c r="D18">
+        <v>2</v>
+      </c>
+      <c r="E18" t="s">
+        <v>9</v>
+      </c>
+      <c r="F18">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A19" t="s">
+        <v>36</v>
+      </c>
+      <c r="B19" t="s">
+        <v>44</v>
+      </c>
+      <c r="C19" t="s">
+        <v>8</v>
+      </c>
+      <c r="D19">
+        <v>2</v>
+      </c>
+      <c r="E19" t="s">
+        <v>9</v>
+      </c>
+      <c r="F19">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="20" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A20" t="s">
+        <v>37</v>
+      </c>
+      <c r="B20" t="s">
+        <v>45</v>
+      </c>
+      <c r="C20" t="s">
+        <v>8</v>
+      </c>
+      <c r="D20">
+        <v>2</v>
+      </c>
+      <c r="E20" t="s">
+        <v>9</v>
+      </c>
+      <c r="F20">
         <v>0</v>
       </c>
     </row>

--- a/machine_config.xlsx
+++ b/machine_config.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\r03\Desktop\mitsubishi-fx5-try\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2975B8D6-BC7A-4000-BD50-9F706B4667FD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{35E80B3E-6458-4D57-805C-5FC7989CC289}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{1BF7E079-436B-4EF4-9EEA-F82FDA08E9C8}"/>
   </bookViews>
@@ -32,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="96" uniqueCount="55">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="100" uniqueCount="57">
   <si>
     <t>機台名稱</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -242,6 +242,14 @@
   </si>
   <si>
     <t>D600</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>AJ2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>10.10.1.57:5000</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -616,10 +624,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{96A82F3B-0739-4B46-8DC5-C9EE2B40733D}">
-  <dimension ref="A1:N20"/>
+  <dimension ref="A1:N21"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G7" sqref="G7"/>
+      <selection activeCell="A13" sqref="A13:F13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.25"/>
@@ -938,10 +946,10 @@
     </row>
     <row r="13" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
-        <v>30</v>
+        <v>55</v>
       </c>
       <c r="B13" t="s">
-        <v>38</v>
+        <v>56</v>
       </c>
       <c r="C13" t="s">
         <v>8</v>
@@ -958,10 +966,10 @@
     </row>
     <row r="14" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="B14" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="C14" t="s">
         <v>8</v>
@@ -978,10 +986,10 @@
     </row>
     <row r="15" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="B15" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="C15" t="s">
         <v>8</v>
@@ -998,10 +1006,10 @@
     </row>
     <row r="16" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="B16" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="C16" t="s">
         <v>8</v>
@@ -1018,10 +1026,10 @@
     </row>
     <row r="17" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="B17" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="C17" t="s">
         <v>8</v>
@@ -1038,10 +1046,10 @@
     </row>
     <row r="18" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="B18" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="C18" t="s">
         <v>8</v>
@@ -1058,10 +1066,10 @@
     </row>
     <row r="19" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="B19" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="C19" t="s">
         <v>8</v>
@@ -1078,21 +1086,41 @@
     </row>
     <row r="20" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
+        <v>36</v>
+      </c>
+      <c r="B20" t="s">
+        <v>44</v>
+      </c>
+      <c r="C20" t="s">
+        <v>8</v>
+      </c>
+      <c r="D20">
+        <v>2</v>
+      </c>
+      <c r="E20" t="s">
+        <v>9</v>
+      </c>
+      <c r="F20">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A21" t="s">
         <v>37</v>
       </c>
-      <c r="B20" t="s">
+      <c r="B21" t="s">
         <v>45</v>
       </c>
-      <c r="C20" t="s">
-        <v>8</v>
-      </c>
-      <c r="D20">
-        <v>2</v>
-      </c>
-      <c r="E20" t="s">
-        <v>9</v>
-      </c>
-      <c r="F20">
+      <c r="C21" t="s">
+        <v>8</v>
+      </c>
+      <c r="D21">
+        <v>2</v>
+      </c>
+      <c r="E21" t="s">
+        <v>9</v>
+      </c>
+      <c r="F21">
         <v>0</v>
       </c>
     </row>

--- a/machine_config.xlsx
+++ b/machine_config.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\r03\Desktop\mitsubishi-fx5-try\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{35E80B3E-6458-4D57-805C-5FC7989CC289}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D55465B5-8FD3-4148-8729-5B69E6C80BB5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{1BF7E079-436B-4EF4-9EEA-F82FDA08E9C8}"/>
   </bookViews>
@@ -86,10 +86,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>192.168.2.184:5000</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>10.10.1.49:5000</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -250,6 +246,10 @@
   </si>
   <si>
     <t>10.10.1.57:5000</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>10.10.1.35:5000</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -627,7 +627,7 @@
   <dimension ref="A1:N21"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A13" sqref="A13:F13"/>
+      <selection activeCell="B10" sqref="B10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.25"/>
@@ -676,13 +676,13 @@
         <v>5</v>
       </c>
       <c r="K1" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="L1" t="s">
         <v>5</v>
       </c>
       <c r="M1" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="N1" t="s">
         <v>5</v>
@@ -690,13 +690,13 @@
     </row>
     <row r="2" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="B2" t="s">
         <v>23</v>
       </c>
-      <c r="B2" t="s">
-        <v>24</v>
-      </c>
       <c r="C2" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="D2">
         <v>2</v>
@@ -708,13 +708,13 @@
         <v>0</v>
       </c>
       <c r="K2" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="L2">
         <v>3</v>
       </c>
       <c r="M2" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="N2">
         <v>3</v>
@@ -722,13 +722,13 @@
     </row>
     <row r="3" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B3" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="C3" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="D3">
         <v>2</v>
@@ -742,14 +742,14 @@
     </row>
     <row r="4" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A4" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="B4" t="s">
         <v>15</v>
       </c>
-      <c r="B4" t="s">
+      <c r="C4" t="s">
         <v>16</v>
       </c>
-      <c r="C4" t="s">
-        <v>17</v>
-      </c>
       <c r="D4">
         <v>2</v>
       </c>
@@ -760,13 +760,13 @@
         <v>0</v>
       </c>
       <c r="K4" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="L4">
         <v>3</v>
       </c>
       <c r="M4" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="N4">
         <v>3</v>
@@ -774,13 +774,13 @@
     </row>
     <row r="5" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A5" s="1" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="B5" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="C5" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="D5">
         <v>2</v>
@@ -794,13 +794,13 @@
     </row>
     <row r="6" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A6" s="1" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="B6" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="C6" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="D6">
         <v>2</v>
@@ -814,13 +814,13 @@
     </row>
     <row r="7" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A7" s="1" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="B7" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="C7" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="D7">
         <v>2</v>
@@ -834,13 +834,13 @@
     </row>
     <row r="8" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A8" s="1" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="B8" t="s">
+        <v>52</v>
+      </c>
+      <c r="C8" t="s">
         <v>53</v>
-      </c>
-      <c r="C8" t="s">
-        <v>54</v>
       </c>
       <c r="D8">
         <v>2</v>
@@ -857,7 +857,7 @@
         <v>7</v>
       </c>
       <c r="B9" t="s">
-        <v>13</v>
+        <v>56</v>
       </c>
       <c r="C9" t="s">
         <v>8</v>
@@ -874,10 +874,10 @@
     </row>
     <row r="10" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A10" s="1" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="B10" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="C10" t="s">
         <v>8</v>
@@ -894,10 +894,10 @@
     </row>
     <row r="11" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A11" s="1" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="B11" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="C11" t="s">
         <v>8</v>
@@ -917,7 +917,7 @@
         <v>6</v>
       </c>
       <c r="B12" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="C12" t="s">
         <v>8</v>
@@ -946,10 +946,10 @@
     </row>
     <row r="13" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
+        <v>54</v>
+      </c>
+      <c r="B13" t="s">
         <v>55</v>
-      </c>
-      <c r="B13" t="s">
-        <v>56</v>
       </c>
       <c r="C13" t="s">
         <v>8</v>
@@ -966,10 +966,10 @@
     </row>
     <row r="14" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="B14" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="C14" t="s">
         <v>8</v>
@@ -986,10 +986,10 @@
     </row>
     <row r="15" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="B15" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="C15" t="s">
         <v>8</v>
@@ -1006,10 +1006,10 @@
     </row>
     <row r="16" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="B16" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="C16" t="s">
         <v>8</v>
@@ -1026,10 +1026,10 @@
     </row>
     <row r="17" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="B17" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="C17" t="s">
         <v>8</v>
@@ -1046,10 +1046,10 @@
     </row>
     <row r="18" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="B18" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="C18" t="s">
         <v>8</v>
@@ -1066,10 +1066,10 @@
     </row>
     <row r="19" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="B19" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="C19" t="s">
         <v>8</v>
@@ -1086,10 +1086,10 @@
     </row>
     <row r="20" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="B20" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="C20" t="s">
         <v>8</v>
@@ -1106,10 +1106,10 @@
     </row>
     <row r="21" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="B21" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="C21" t="s">
         <v>8</v>

--- a/machine_config.xlsx
+++ b/machine_config.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\r03\Desktop\mitsubishi-fx5-try\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D55465B5-8FD3-4148-8729-5B69E6C80BB5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D29C9C79-CEC3-4783-8AB1-EF195A71DA57}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{1BF7E079-436B-4EF4-9EEA-F82FDA08E9C8}"/>
   </bookViews>
@@ -32,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="100" uniqueCount="57">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="108" uniqueCount="59">
   <si>
     <t>機台名稱</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -250,6 +250,14 @@
   </si>
   <si>
     <t>10.10.1.35:5000</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>MX15</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>10.10.1.59:5000</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -624,10 +632,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{96A82F3B-0739-4B46-8DC5-C9EE2B40733D}">
-  <dimension ref="A1:N21"/>
+  <dimension ref="A1:N22"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B10" sqref="B10"/>
+      <selection activeCell="B6" sqref="B6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.25"/>
@@ -739,6 +747,18 @@
       <c r="F3">
         <v>0</v>
       </c>
+      <c r="K3" t="s">
+        <v>19</v>
+      </c>
+      <c r="L3">
+        <v>3</v>
+      </c>
+      <c r="M3" t="s">
+        <v>20</v>
+      </c>
+      <c r="N3">
+        <v>3</v>
+      </c>
     </row>
     <row r="4" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A4" s="1" t="s">
@@ -774,13 +794,13 @@
     </row>
     <row r="5" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A5" s="1" t="s">
-        <v>45</v>
+        <v>57</v>
       </c>
       <c r="B5" t="s">
-        <v>49</v>
+        <v>58</v>
       </c>
       <c r="C5" t="s">
-        <v>53</v>
+        <v>16</v>
       </c>
       <c r="D5">
         <v>2</v>
@@ -790,14 +810,26 @@
       </c>
       <c r="F5">
         <v>0</v>
+      </c>
+      <c r="K5" t="s">
+        <v>19</v>
+      </c>
+      <c r="L5">
+        <v>3</v>
+      </c>
+      <c r="M5" t="s">
+        <v>20</v>
+      </c>
+      <c r="N5">
+        <v>3</v>
       </c>
     </row>
     <row r="6" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A6" s="1" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="B6" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="C6" t="s">
         <v>53</v>
@@ -814,10 +846,10 @@
     </row>
     <row r="7" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A7" s="1" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="B7" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="C7" t="s">
         <v>53</v>
@@ -834,10 +866,10 @@
     </row>
     <row r="8" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A8" s="1" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="B8" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="C8" t="s">
         <v>53</v>
@@ -853,31 +885,31 @@
       </c>
     </row>
     <row r="9" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A9" t="s">
+      <c r="A9" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="B9" t="s">
+        <v>52</v>
+      </c>
+      <c r="C9" t="s">
+        <v>53</v>
+      </c>
+      <c r="D9">
+        <v>2</v>
+      </c>
+      <c r="E9" t="s">
+        <v>9</v>
+      </c>
+      <c r="F9">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A10" t="s">
         <v>7</v>
       </c>
-      <c r="B9" t="s">
+      <c r="B10" t="s">
         <v>56</v>
-      </c>
-      <c r="C9" t="s">
-        <v>8</v>
-      </c>
-      <c r="D9">
-        <v>2</v>
-      </c>
-      <c r="E9" t="s">
-        <v>9</v>
-      </c>
-      <c r="F9">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="10" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A10" s="1" t="s">
-        <v>25</v>
-      </c>
-      <c r="B10" t="s">
-        <v>27</v>
       </c>
       <c r="C10" t="s">
         <v>8</v>
@@ -894,31 +926,31 @@
     </row>
     <row r="11" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A11" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="B11" t="s">
+        <v>27</v>
+      </c>
+      <c r="C11" t="s">
+        <v>8</v>
+      </c>
+      <c r="D11">
+        <v>2</v>
+      </c>
+      <c r="E11" t="s">
+        <v>9</v>
+      </c>
+      <c r="F11">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A12" s="1" t="s">
         <v>26</v>
       </c>
-      <c r="B11" t="s">
+      <c r="B12" t="s">
         <v>28</v>
       </c>
-      <c r="C11" t="s">
-        <v>8</v>
-      </c>
-      <c r="D11">
-        <v>2</v>
-      </c>
-      <c r="E11" t="s">
-        <v>9</v>
-      </c>
-      <c r="F11">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="12" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A12" t="s">
-        <v>6</v>
-      </c>
-      <c r="B12" t="s">
-        <v>13</v>
-      </c>
       <c r="C12" t="s">
         <v>8</v>
       </c>
@@ -930,26 +962,14 @@
       </c>
       <c r="F12">
         <v>0</v>
-      </c>
-      <c r="G12" t="s">
-        <v>10</v>
-      </c>
-      <c r="H12">
-        <v>0</v>
-      </c>
-      <c r="I12" t="s">
-        <v>11</v>
-      </c>
-      <c r="J12">
-        <v>2</v>
       </c>
     </row>
     <row r="13" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
-        <v>54</v>
+        <v>6</v>
       </c>
       <c r="B13" t="s">
-        <v>55</v>
+        <v>13</v>
       </c>
       <c r="C13" t="s">
         <v>8</v>
@@ -962,14 +982,26 @@
       </c>
       <c r="F13">
         <v>0</v>
+      </c>
+      <c r="G13" t="s">
+        <v>10</v>
+      </c>
+      <c r="H13">
+        <v>0</v>
+      </c>
+      <c r="I13" t="s">
+        <v>11</v>
+      </c>
+      <c r="J13">
+        <v>2</v>
       </c>
     </row>
     <row r="14" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
-        <v>29</v>
+        <v>54</v>
       </c>
       <c r="B14" t="s">
-        <v>37</v>
+        <v>55</v>
       </c>
       <c r="C14" t="s">
         <v>8</v>
@@ -986,10 +1018,10 @@
     </row>
     <row r="15" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="B15" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="C15" t="s">
         <v>8</v>
@@ -1006,10 +1038,10 @@
     </row>
     <row r="16" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="B16" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="C16" t="s">
         <v>8</v>
@@ -1026,10 +1058,10 @@
     </row>
     <row r="17" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="B17" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="C17" t="s">
         <v>8</v>
@@ -1046,10 +1078,10 @@
     </row>
     <row r="18" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="B18" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="C18" t="s">
         <v>8</v>
@@ -1066,10 +1098,10 @@
     </row>
     <row r="19" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="B19" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="C19" t="s">
         <v>8</v>
@@ -1086,10 +1118,10 @@
     </row>
     <row r="20" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="B20" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="C20" t="s">
         <v>8</v>
@@ -1106,21 +1138,41 @@
     </row>
     <row r="21" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
+        <v>35</v>
+      </c>
+      <c r="B21" t="s">
+        <v>43</v>
+      </c>
+      <c r="C21" t="s">
+        <v>8</v>
+      </c>
+      <c r="D21">
+        <v>2</v>
+      </c>
+      <c r="E21" t="s">
+        <v>9</v>
+      </c>
+      <c r="F21">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="22" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A22" t="s">
         <v>36</v>
       </c>
-      <c r="B21" t="s">
+      <c r="B22" t="s">
         <v>44</v>
       </c>
-      <c r="C21" t="s">
-        <v>8</v>
-      </c>
-      <c r="D21">
-        <v>2</v>
-      </c>
-      <c r="E21" t="s">
-        <v>9</v>
-      </c>
-      <c r="F21">
+      <c r="C22" t="s">
+        <v>8</v>
+      </c>
+      <c r="D22">
+        <v>2</v>
+      </c>
+      <c r="E22" t="s">
+        <v>9</v>
+      </c>
+      <c r="F22">
         <v>0</v>
       </c>
     </row>

--- a/machine_config.xlsx
+++ b/machine_config.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\r03\Desktop\mitsubishi-fx5-try\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D29C9C79-CEC3-4783-8AB1-EF195A71DA57}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B936203D-B591-4E87-8FA1-4D24461DA70E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{1BF7E079-436B-4EF4-9EEA-F82FDA08E9C8}"/>
   </bookViews>
@@ -32,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="108" uniqueCount="59">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="109" uniqueCount="61">
   <si>
     <t>機台名稱</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -258,6 +258,14 @@
   </si>
   <si>
     <t>10.10.1.59:5000</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>D204</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>datatype 0=int16 1=ascii 2=int32 3=int16_signed</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -635,7 +643,7 @@
   <dimension ref="A1:N22"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B6" sqref="B6"/>
+      <selection activeCell="L11" sqref="L11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.25"/>
@@ -645,11 +653,11 @@
     <col min="3" max="3" width="16" customWidth="1"/>
     <col min="4" max="4" width="9.25" customWidth="1"/>
     <col min="5" max="5" width="15.125" customWidth="1"/>
-    <col min="6" max="6" width="10.875" customWidth="1"/>
+    <col min="6" max="6" width="19.25" customWidth="1"/>
     <col min="7" max="7" width="14.75" customWidth="1"/>
     <col min="8" max="8" width="19.125" customWidth="1"/>
     <col min="9" max="9" width="13.875" customWidth="1"/>
-    <col min="12" max="12" width="34.5" customWidth="1"/>
+    <col min="12" max="12" width="44.375" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:14" x14ac:dyDescent="0.25">
@@ -687,7 +695,7 @@
         <v>17</v>
       </c>
       <c r="L1" t="s">
-        <v>5</v>
+        <v>60</v>
       </c>
       <c r="M1" t="s">
         <v>18</v>
@@ -922,6 +930,12 @@
       </c>
       <c r="F10">
         <v>0</v>
+      </c>
+      <c r="K10" t="s">
+        <v>59</v>
+      </c>
+      <c r="L10">
+        <v>3</v>
       </c>
     </row>
     <row r="11" spans="1:14" x14ac:dyDescent="0.25">

--- a/machine_config.xlsx
+++ b/machine_config.xlsx
@@ -8,14 +8,14 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\r03\Desktop\mitsubishi-fx5-try\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B936203D-B591-4E87-8FA1-4D24461DA70E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1601CCC7-F3C8-445B-9323-8D1D74AEB64C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{1BF7E079-436B-4EF4-9EEA-F82FDA08E9C8}"/>
   </bookViews>
   <sheets>
     <sheet name="工作表1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="191029"/>
+  <calcPr calcId="191029" concurrentCalc="0"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -32,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="109" uniqueCount="61">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="114" uniqueCount="63">
   <si>
     <t>機台名稱</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -266,6 +266,14 @@
   </si>
   <si>
     <t>datatype 0=int16 1=ascii 2=int32 3=int16_signed</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>MJ5</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>10.10.1.60:5000</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -640,10 +648,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{96A82F3B-0739-4B46-8DC5-C9EE2B40733D}">
-  <dimension ref="A1:N22"/>
+  <dimension ref="A1:N23"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="L11" sqref="L11"/>
+      <selection activeCell="C11" sqref="C11:P11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.25"/>
@@ -939,11 +947,11 @@
       </c>
     </row>
     <row r="11" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A11" s="1" t="s">
-        <v>25</v>
+      <c r="A11" t="s">
+        <v>61</v>
       </c>
       <c r="B11" t="s">
-        <v>27</v>
+        <v>62</v>
       </c>
       <c r="C11" t="s">
         <v>8</v>
@@ -956,35 +964,41 @@
       </c>
       <c r="F11">
         <v>0</v>
+      </c>
+      <c r="K11" t="s">
+        <v>59</v>
+      </c>
+      <c r="L11">
+        <v>3</v>
       </c>
     </row>
     <row r="12" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A12" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="B12" t="s">
+        <v>27</v>
+      </c>
+      <c r="C12" t="s">
+        <v>8</v>
+      </c>
+      <c r="D12">
+        <v>2</v>
+      </c>
+      <c r="E12" t="s">
+        <v>9</v>
+      </c>
+      <c r="F12">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A13" s="1" t="s">
         <v>26</v>
       </c>
-      <c r="B12" t="s">
+      <c r="B13" t="s">
         <v>28</v>
       </c>
-      <c r="C12" t="s">
-        <v>8</v>
-      </c>
-      <c r="D12">
-        <v>2</v>
-      </c>
-      <c r="E12" t="s">
-        <v>9</v>
-      </c>
-      <c r="F12">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="13" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A13" t="s">
-        <v>6</v>
-      </c>
-      <c r="B13" t="s">
-        <v>13</v>
-      </c>
       <c r="C13" t="s">
         <v>8</v>
       </c>
@@ -996,26 +1010,14 @@
       </c>
       <c r="F13">
         <v>0</v>
-      </c>
-      <c r="G13" t="s">
-        <v>10</v>
-      </c>
-      <c r="H13">
-        <v>0</v>
-      </c>
-      <c r="I13" t="s">
-        <v>11</v>
-      </c>
-      <c r="J13">
-        <v>2</v>
       </c>
     </row>
     <row r="14" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
-        <v>54</v>
+        <v>6</v>
       </c>
       <c r="B14" t="s">
-        <v>55</v>
+        <v>13</v>
       </c>
       <c r="C14" t="s">
         <v>8</v>
@@ -1028,14 +1030,26 @@
       </c>
       <c r="F14">
         <v>0</v>
+      </c>
+      <c r="G14" t="s">
+        <v>10</v>
+      </c>
+      <c r="H14">
+        <v>0</v>
+      </c>
+      <c r="I14" t="s">
+        <v>11</v>
+      </c>
+      <c r="J14">
+        <v>2</v>
       </c>
     </row>
     <row r="15" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
-        <v>29</v>
+        <v>54</v>
       </c>
       <c r="B15" t="s">
-        <v>37</v>
+        <v>55</v>
       </c>
       <c r="C15" t="s">
         <v>8</v>
@@ -1052,10 +1066,10 @@
     </row>
     <row r="16" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="B16" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="C16" t="s">
         <v>8</v>
@@ -1072,10 +1086,10 @@
     </row>
     <row r="17" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="B17" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="C17" t="s">
         <v>8</v>
@@ -1092,10 +1106,10 @@
     </row>
     <row r="18" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="B18" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="C18" t="s">
         <v>8</v>
@@ -1112,10 +1126,10 @@
     </row>
     <row r="19" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="B19" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="C19" t="s">
         <v>8</v>
@@ -1132,10 +1146,10 @@
     </row>
     <row r="20" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="B20" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="C20" t="s">
         <v>8</v>
@@ -1152,10 +1166,10 @@
     </row>
     <row r="21" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="B21" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="C21" t="s">
         <v>8</v>
@@ -1172,21 +1186,41 @@
     </row>
     <row r="22" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
+        <v>35</v>
+      </c>
+      <c r="B22" t="s">
+        <v>43</v>
+      </c>
+      <c r="C22" t="s">
+        <v>8</v>
+      </c>
+      <c r="D22">
+        <v>2</v>
+      </c>
+      <c r="E22" t="s">
+        <v>9</v>
+      </c>
+      <c r="F22">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A23" t="s">
         <v>36</v>
       </c>
-      <c r="B22" t="s">
+      <c r="B23" t="s">
         <v>44</v>
       </c>
-      <c r="C22" t="s">
-        <v>8</v>
-      </c>
-      <c r="D22">
-        <v>2</v>
-      </c>
-      <c r="E22" t="s">
-        <v>9</v>
-      </c>
-      <c r="F22">
+      <c r="C23" t="s">
+        <v>8</v>
+      </c>
+      <c r="D23">
+        <v>2</v>
+      </c>
+      <c r="E23" t="s">
+        <v>9</v>
+      </c>
+      <c r="F23">
         <v>0</v>
       </c>
     </row>

--- a/machine_config.xlsx
+++ b/machine_config.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\r03\Desktop\mitsubishi-fx5-try\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1601CCC7-F3C8-445B-9323-8D1D74AEB64C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2F65BAF3-FF60-4EBB-A76E-59493C662718}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{1BF7E079-436B-4EF4-9EEA-F82FDA08E9C8}"/>
   </bookViews>
@@ -32,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="114" uniqueCount="63">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="124" uniqueCount="67">
   <si>
     <t>機台名稱</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -274,6 +274,22 @@
   </si>
   <si>
     <t>10.10.1.60:5000</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>MJ2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>MJ3</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>10.10.1.33:5000</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>10.10.1.34:5000</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -648,10 +664,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{96A82F3B-0739-4B46-8DC5-C9EE2B40733D}">
-  <dimension ref="A1:N23"/>
+  <dimension ref="A1:N25"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C11" sqref="C11:P11"/>
+      <selection activeCell="C10" sqref="C10:L11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.25"/>
@@ -921,11 +937,11 @@
       </c>
     </row>
     <row r="10" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A10" t="s">
-        <v>7</v>
+      <c r="A10" s="1" t="s">
+        <v>63</v>
       </c>
       <c r="B10" t="s">
-        <v>56</v>
+        <v>65</v>
       </c>
       <c r="C10" t="s">
         <v>8</v>
@@ -947,11 +963,11 @@
       </c>
     </row>
     <row r="11" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A11" t="s">
-        <v>61</v>
+      <c r="A11" s="1" t="s">
+        <v>64</v>
       </c>
       <c r="B11" t="s">
-        <v>62</v>
+        <v>66</v>
       </c>
       <c r="C11" t="s">
         <v>8</v>
@@ -973,83 +989,83 @@
       </c>
     </row>
     <row r="12" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A12" s="1" t="s">
+      <c r="A12" t="s">
+        <v>7</v>
+      </c>
+      <c r="B12" t="s">
+        <v>56</v>
+      </c>
+      <c r="C12" t="s">
+        <v>8</v>
+      </c>
+      <c r="D12">
+        <v>2</v>
+      </c>
+      <c r="E12" t="s">
+        <v>9</v>
+      </c>
+      <c r="F12">
+        <v>0</v>
+      </c>
+      <c r="K12" t="s">
+        <v>59</v>
+      </c>
+      <c r="L12">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="13" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A13" t="s">
+        <v>61</v>
+      </c>
+      <c r="B13" t="s">
+        <v>62</v>
+      </c>
+      <c r="C13" t="s">
+        <v>8</v>
+      </c>
+      <c r="D13">
+        <v>2</v>
+      </c>
+      <c r="E13" t="s">
+        <v>9</v>
+      </c>
+      <c r="F13">
+        <v>0</v>
+      </c>
+      <c r="K13" t="s">
+        <v>59</v>
+      </c>
+      <c r="L13">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="14" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A14" s="1" t="s">
         <v>25</v>
       </c>
-      <c r="B12" t="s">
+      <c r="B14" t="s">
         <v>27</v>
       </c>
-      <c r="C12" t="s">
-        <v>8</v>
-      </c>
-      <c r="D12">
-        <v>2</v>
-      </c>
-      <c r="E12" t="s">
-        <v>9</v>
-      </c>
-      <c r="F12">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="13" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A13" s="1" t="s">
+      <c r="C14" t="s">
+        <v>8</v>
+      </c>
+      <c r="D14">
+        <v>2</v>
+      </c>
+      <c r="E14" t="s">
+        <v>9</v>
+      </c>
+      <c r="F14">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A15" s="1" t="s">
         <v>26</v>
       </c>
-      <c r="B13" t="s">
+      <c r="B15" t="s">
         <v>28</v>
-      </c>
-      <c r="C13" t="s">
-        <v>8</v>
-      </c>
-      <c r="D13">
-        <v>2</v>
-      </c>
-      <c r="E13" t="s">
-        <v>9</v>
-      </c>
-      <c r="F13">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="14" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A14" t="s">
-        <v>6</v>
-      </c>
-      <c r="B14" t="s">
-        <v>13</v>
-      </c>
-      <c r="C14" t="s">
-        <v>8</v>
-      </c>
-      <c r="D14">
-        <v>2</v>
-      </c>
-      <c r="E14" t="s">
-        <v>9</v>
-      </c>
-      <c r="F14">
-        <v>0</v>
-      </c>
-      <c r="G14" t="s">
-        <v>10</v>
-      </c>
-      <c r="H14">
-        <v>0</v>
-      </c>
-      <c r="I14" t="s">
-        <v>11</v>
-      </c>
-      <c r="J14">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="15" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A15" t="s">
-        <v>54</v>
-      </c>
-      <c r="B15" t="s">
-        <v>55</v>
       </c>
       <c r="C15" t="s">
         <v>8</v>
@@ -1066,10 +1082,10 @@
     </row>
     <row r="16" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
-        <v>29</v>
+        <v>6</v>
       </c>
       <c r="B16" t="s">
-        <v>37</v>
+        <v>13</v>
       </c>
       <c r="C16" t="s">
         <v>8</v>
@@ -1082,14 +1098,26 @@
       </c>
       <c r="F16">
         <v>0</v>
+      </c>
+      <c r="G16" t="s">
+        <v>10</v>
+      </c>
+      <c r="H16">
+        <v>0</v>
+      </c>
+      <c r="I16" t="s">
+        <v>11</v>
+      </c>
+      <c r="J16">
+        <v>2</v>
       </c>
     </row>
     <row r="17" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
-        <v>30</v>
+        <v>54</v>
       </c>
       <c r="B17" t="s">
-        <v>38</v>
+        <v>55</v>
       </c>
       <c r="C17" t="s">
         <v>8</v>
@@ -1106,10 +1134,10 @@
     </row>
     <row r="18" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="B18" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="C18" t="s">
         <v>8</v>
@@ -1126,10 +1154,10 @@
     </row>
     <row r="19" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="B19" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="C19" t="s">
         <v>8</v>
@@ -1146,10 +1174,10 @@
     </row>
     <row r="20" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="B20" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="C20" t="s">
         <v>8</v>
@@ -1166,10 +1194,10 @@
     </row>
     <row r="21" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="B21" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="C21" t="s">
         <v>8</v>
@@ -1186,10 +1214,10 @@
     </row>
     <row r="22" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="B22" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="C22" t="s">
         <v>8</v>
@@ -1206,21 +1234,61 @@
     </row>
     <row r="23" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
+        <v>34</v>
+      </c>
+      <c r="B23" t="s">
+        <v>42</v>
+      </c>
+      <c r="C23" t="s">
+        <v>8</v>
+      </c>
+      <c r="D23">
+        <v>2</v>
+      </c>
+      <c r="E23" t="s">
+        <v>9</v>
+      </c>
+      <c r="F23">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="24" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A24" t="s">
+        <v>35</v>
+      </c>
+      <c r="B24" t="s">
+        <v>43</v>
+      </c>
+      <c r="C24" t="s">
+        <v>8</v>
+      </c>
+      <c r="D24">
+        <v>2</v>
+      </c>
+      <c r="E24" t="s">
+        <v>9</v>
+      </c>
+      <c r="F24">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A25" t="s">
         <v>36</v>
       </c>
-      <c r="B23" t="s">
+      <c r="B25" t="s">
         <v>44</v>
       </c>
-      <c r="C23" t="s">
-        <v>8</v>
-      </c>
-      <c r="D23">
-        <v>2</v>
-      </c>
-      <c r="E23" t="s">
-        <v>9</v>
-      </c>
-      <c r="F23">
+      <c r="C25" t="s">
+        <v>8</v>
+      </c>
+      <c r="D25">
+        <v>2</v>
+      </c>
+      <c r="E25" t="s">
+        <v>9</v>
+      </c>
+      <c r="F25">
         <v>0</v>
       </c>
     </row>

--- a/machine_config.xlsx
+++ b/machine_config.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\r03\Desktop\mitsubishi-fx5-try\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2F65BAF3-FF60-4EBB-A76E-59493C662718}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2F9038EF-9BE3-4982-AD6E-1F7D9BC82A23}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{1BF7E079-436B-4EF4-9EEA-F82FDA08E9C8}"/>
   </bookViews>
@@ -667,7 +667,7 @@
   <dimension ref="A1:N25"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C10" sqref="C10:L11"/>
+      <selection activeCell="L19" sqref="L19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.25"/>

--- a/machine_config.xlsx
+++ b/machine_config.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\r03\Desktop\mitsubishi-fx5-try\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2F9038EF-9BE3-4982-AD6E-1F7D9BC82A23}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{88167F9B-455D-4718-99D7-8F9BD93E8D8E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{1BF7E079-436B-4EF4-9EEA-F82FDA08E9C8}"/>
   </bookViews>
@@ -32,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="124" uniqueCount="67">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="132" uniqueCount="71">
   <si>
     <t>機台名稱</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -290,6 +290,22 @@
   </si>
   <si>
     <t>10.10.1.34:5000</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>AL1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>AL2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>10.10.1.55:5000</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>10.10.1.56:5000</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -664,10 +680,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{96A82F3B-0739-4B46-8DC5-C9EE2B40733D}">
-  <dimension ref="A1:N25"/>
+  <dimension ref="A1:N27"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="L19" sqref="L19"/>
+      <selection activeCell="F18" sqref="F18:F19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.25"/>
@@ -1134,10 +1150,10 @@
     </row>
     <row r="18" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
-        <v>29</v>
+        <v>67</v>
       </c>
       <c r="B18" t="s">
-        <v>37</v>
+        <v>69</v>
       </c>
       <c r="C18" t="s">
         <v>8</v>
@@ -1154,10 +1170,10 @@
     </row>
     <row r="19" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
-        <v>30</v>
+        <v>68</v>
       </c>
       <c r="B19" t="s">
-        <v>38</v>
+        <v>70</v>
       </c>
       <c r="C19" t="s">
         <v>8</v>
@@ -1174,10 +1190,10 @@
     </row>
     <row r="20" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="B20" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="C20" t="s">
         <v>8</v>
@@ -1194,10 +1210,10 @@
     </row>
     <row r="21" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="B21" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="C21" t="s">
         <v>8</v>
@@ -1214,10 +1230,10 @@
     </row>
     <row r="22" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="B22" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="C22" t="s">
         <v>8</v>
@@ -1234,10 +1250,10 @@
     </row>
     <row r="23" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="B23" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="C23" t="s">
         <v>8</v>
@@ -1254,10 +1270,10 @@
     </row>
     <row r="24" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="B24" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="C24" t="s">
         <v>8</v>
@@ -1274,21 +1290,61 @@
     </row>
     <row r="25" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
+        <v>34</v>
+      </c>
+      <c r="B25" t="s">
+        <v>42</v>
+      </c>
+      <c r="C25" t="s">
+        <v>8</v>
+      </c>
+      <c r="D25">
+        <v>2</v>
+      </c>
+      <c r="E25" t="s">
+        <v>9</v>
+      </c>
+      <c r="F25">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A26" t="s">
+        <v>35</v>
+      </c>
+      <c r="B26" t="s">
+        <v>43</v>
+      </c>
+      <c r="C26" t="s">
+        <v>8</v>
+      </c>
+      <c r="D26">
+        <v>2</v>
+      </c>
+      <c r="E26" t="s">
+        <v>9</v>
+      </c>
+      <c r="F26">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="27" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A27" t="s">
         <v>36</v>
       </c>
-      <c r="B25" t="s">
+      <c r="B27" t="s">
         <v>44</v>
       </c>
-      <c r="C25" t="s">
-        <v>8</v>
-      </c>
-      <c r="D25">
-        <v>2</v>
-      </c>
-      <c r="E25" t="s">
-        <v>9</v>
-      </c>
-      <c r="F25">
+      <c r="C27" t="s">
+        <v>8</v>
+      </c>
+      <c r="D27">
+        <v>2</v>
+      </c>
+      <c r="E27" t="s">
+        <v>9</v>
+      </c>
+      <c r="F27">
         <v>0</v>
       </c>
     </row>

--- a/machine_config.xlsx
+++ b/machine_config.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\r03\Desktop\mitsubishi-fx5-try\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{88167F9B-455D-4718-99D7-8F9BD93E8D8E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2A6B6158-D120-4F2C-B682-8FE89B67E2D9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{1BF7E079-436B-4EF4-9EEA-F82FDA08E9C8}"/>
   </bookViews>
@@ -32,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="132" uniqueCount="71">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="144" uniqueCount="77">
   <si>
     <t>機台名稱</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -306,6 +306,30 @@
   </si>
   <si>
     <t>10.10.1.56:5000</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>MA1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>MA2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>MA4</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>10.10.1.15:5000</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>10.10.1.16:5000</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>10.10.1.62:5000</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -680,10 +704,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{96A82F3B-0739-4B46-8DC5-C9EE2B40733D}">
-  <dimension ref="A1:N27"/>
+  <dimension ref="A1:N30"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F18" sqref="F18:F19"/>
+      <selection activeCell="G6" sqref="G6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.25"/>
@@ -874,13 +898,13 @@
     </row>
     <row r="6" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A6" s="1" t="s">
-        <v>45</v>
+        <v>71</v>
       </c>
       <c r="B6" t="s">
-        <v>49</v>
+        <v>74</v>
       </c>
       <c r="C6" t="s">
-        <v>53</v>
+        <v>16</v>
       </c>
       <c r="D6">
         <v>2</v>
@@ -894,13 +918,13 @@
     </row>
     <row r="7" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A7" s="1" t="s">
-        <v>46</v>
+        <v>72</v>
       </c>
       <c r="B7" t="s">
-        <v>50</v>
+        <v>75</v>
       </c>
       <c r="C7" t="s">
-        <v>53</v>
+        <v>16</v>
       </c>
       <c r="D7">
         <v>2</v>
@@ -914,13 +938,13 @@
     </row>
     <row r="8" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A8" s="1" t="s">
-        <v>47</v>
+        <v>73</v>
       </c>
       <c r="B8" t="s">
-        <v>51</v>
+        <v>76</v>
       </c>
       <c r="C8" t="s">
-        <v>53</v>
+        <v>16</v>
       </c>
       <c r="D8">
         <v>2</v>
@@ -934,10 +958,10 @@
     </row>
     <row r="9" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A9" s="1" t="s">
-        <v>48</v>
+        <v>45</v>
       </c>
       <c r="B9" t="s">
-        <v>52</v>
+        <v>49</v>
       </c>
       <c r="C9" t="s">
         <v>53</v>
@@ -954,13 +978,13 @@
     </row>
     <row r="10" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A10" s="1" t="s">
-        <v>63</v>
+        <v>46</v>
       </c>
       <c r="B10" t="s">
-        <v>65</v>
+        <v>50</v>
       </c>
       <c r="C10" t="s">
-        <v>8</v>
+        <v>53</v>
       </c>
       <c r="D10">
         <v>2</v>
@@ -970,23 +994,17 @@
       </c>
       <c r="F10">
         <v>0</v>
-      </c>
-      <c r="K10" t="s">
-        <v>59</v>
-      </c>
-      <c r="L10">
-        <v>3</v>
       </c>
     </row>
     <row r="11" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A11" s="1" t="s">
-        <v>64</v>
+        <v>47</v>
       </c>
       <c r="B11" t="s">
-        <v>66</v>
+        <v>51</v>
       </c>
       <c r="C11" t="s">
-        <v>8</v>
+        <v>53</v>
       </c>
       <c r="D11">
         <v>2</v>
@@ -997,22 +1015,16 @@
       <c r="F11">
         <v>0</v>
       </c>
-      <c r="K11" t="s">
-        <v>59</v>
-      </c>
-      <c r="L11">
-        <v>3</v>
-      </c>
     </row>
     <row r="12" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A12" t="s">
-        <v>7</v>
+      <c r="A12" s="1" t="s">
+        <v>48</v>
       </c>
       <c r="B12" t="s">
-        <v>56</v>
+        <v>52</v>
       </c>
       <c r="C12" t="s">
-        <v>8</v>
+        <v>53</v>
       </c>
       <c r="D12">
         <v>2</v>
@@ -1023,19 +1035,13 @@
       <c r="F12">
         <v>0</v>
       </c>
-      <c r="K12" t="s">
-        <v>59</v>
-      </c>
-      <c r="L12">
-        <v>3</v>
-      </c>
     </row>
     <row r="13" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A13" t="s">
-        <v>61</v>
+      <c r="A13" s="1" t="s">
+        <v>63</v>
       </c>
       <c r="B13" t="s">
-        <v>62</v>
+        <v>65</v>
       </c>
       <c r="C13" t="s">
         <v>8</v>
@@ -1058,10 +1064,10 @@
     </row>
     <row r="14" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A14" s="1" t="s">
-        <v>25</v>
+        <v>64</v>
       </c>
       <c r="B14" t="s">
-        <v>27</v>
+        <v>66</v>
       </c>
       <c r="C14" t="s">
         <v>8</v>
@@ -1075,13 +1081,19 @@
       <c r="F14">
         <v>0</v>
       </c>
+      <c r="K14" t="s">
+        <v>59</v>
+      </c>
+      <c r="L14">
+        <v>3</v>
+      </c>
     </row>
     <row r="15" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A15" s="1" t="s">
-        <v>26</v>
+      <c r="A15" t="s">
+        <v>7</v>
       </c>
       <c r="B15" t="s">
-        <v>28</v>
+        <v>56</v>
       </c>
       <c r="C15" t="s">
         <v>8</v>
@@ -1094,257 +1106,329 @@
       </c>
       <c r="F15">
         <v>0</v>
+      </c>
+      <c r="K15" t="s">
+        <v>59</v>
+      </c>
+      <c r="L15">
+        <v>3</v>
       </c>
     </row>
     <row r="16" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
+        <v>61</v>
+      </c>
+      <c r="B16" t="s">
+        <v>62</v>
+      </c>
+      <c r="C16" t="s">
+        <v>8</v>
+      </c>
+      <c r="D16">
+        <v>2</v>
+      </c>
+      <c r="E16" t="s">
+        <v>9</v>
+      </c>
+      <c r="F16">
+        <v>0</v>
+      </c>
+      <c r="K16" t="s">
+        <v>59</v>
+      </c>
+      <c r="L16">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="17" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A17" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="B17" t="s">
+        <v>27</v>
+      </c>
+      <c r="C17" t="s">
+        <v>8</v>
+      </c>
+      <c r="D17">
+        <v>2</v>
+      </c>
+      <c r="E17" t="s">
+        <v>9</v>
+      </c>
+      <c r="F17">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A18" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="B18" t="s">
+        <v>28</v>
+      </c>
+      <c r="C18" t="s">
+        <v>8</v>
+      </c>
+      <c r="D18">
+        <v>2</v>
+      </c>
+      <c r="E18" t="s">
+        <v>9</v>
+      </c>
+      <c r="F18">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A19" t="s">
         <v>6</v>
       </c>
-      <c r="B16" t="s">
+      <c r="B19" t="s">
         <v>13</v>
       </c>
-      <c r="C16" t="s">
-        <v>8</v>
-      </c>
-      <c r="D16">
-        <v>2</v>
-      </c>
-      <c r="E16" t="s">
-        <v>9</v>
-      </c>
-      <c r="F16">
-        <v>0</v>
-      </c>
-      <c r="G16" t="s">
+      <c r="C19" t="s">
+        <v>8</v>
+      </c>
+      <c r="D19">
+        <v>2</v>
+      </c>
+      <c r="E19" t="s">
+        <v>9</v>
+      </c>
+      <c r="F19">
+        <v>0</v>
+      </c>
+      <c r="G19" t="s">
         <v>10</v>
       </c>
-      <c r="H16">
-        <v>0</v>
-      </c>
-      <c r="I16" t="s">
+      <c r="H19">
+        <v>0</v>
+      </c>
+      <c r="I19" t="s">
         <v>11</v>
       </c>
-      <c r="J16">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="17" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A17" t="s">
+      <c r="J19">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="20" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A20" t="s">
         <v>54</v>
       </c>
-      <c r="B17" t="s">
+      <c r="B20" t="s">
         <v>55</v>
       </c>
-      <c r="C17" t="s">
-        <v>8</v>
-      </c>
-      <c r="D17">
-        <v>2</v>
-      </c>
-      <c r="E17" t="s">
-        <v>9</v>
-      </c>
-      <c r="F17">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="18" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A18" t="s">
+      <c r="C20" t="s">
+        <v>8</v>
+      </c>
+      <c r="D20">
+        <v>2</v>
+      </c>
+      <c r="E20" t="s">
+        <v>9</v>
+      </c>
+      <c r="F20">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A21" t="s">
         <v>67</v>
       </c>
-      <c r="B18" t="s">
+      <c r="B21" t="s">
         <v>69</v>
       </c>
-      <c r="C18" t="s">
-        <v>8</v>
-      </c>
-      <c r="D18">
-        <v>2</v>
-      </c>
-      <c r="E18" t="s">
-        <v>9</v>
-      </c>
-      <c r="F18">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="19" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A19" t="s">
+      <c r="C21" t="s">
+        <v>8</v>
+      </c>
+      <c r="D21">
+        <v>2</v>
+      </c>
+      <c r="E21" t="s">
+        <v>9</v>
+      </c>
+      <c r="F21">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="22" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A22" t="s">
         <v>68</v>
       </c>
-      <c r="B19" t="s">
+      <c r="B22" t="s">
         <v>70</v>
       </c>
-      <c r="C19" t="s">
-        <v>8</v>
-      </c>
-      <c r="D19">
-        <v>2</v>
-      </c>
-      <c r="E19" t="s">
-        <v>9</v>
-      </c>
-      <c r="F19">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="20" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A20" t="s">
+      <c r="C22" t="s">
+        <v>8</v>
+      </c>
+      <c r="D22">
+        <v>2</v>
+      </c>
+      <c r="E22" t="s">
+        <v>9</v>
+      </c>
+      <c r="F22">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A23" t="s">
         <v>29</v>
       </c>
-      <c r="B20" t="s">
+      <c r="B23" t="s">
         <v>37</v>
       </c>
-      <c r="C20" t="s">
-        <v>8</v>
-      </c>
-      <c r="D20">
-        <v>2</v>
-      </c>
-      <c r="E20" t="s">
-        <v>9</v>
-      </c>
-      <c r="F20">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="21" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A21" t="s">
+      <c r="C23" t="s">
+        <v>8</v>
+      </c>
+      <c r="D23">
+        <v>2</v>
+      </c>
+      <c r="E23" t="s">
+        <v>9</v>
+      </c>
+      <c r="F23">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="24" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A24" t="s">
         <v>30</v>
       </c>
-      <c r="B21" t="s">
+      <c r="B24" t="s">
         <v>38</v>
       </c>
-      <c r="C21" t="s">
-        <v>8</v>
-      </c>
-      <c r="D21">
-        <v>2</v>
-      </c>
-      <c r="E21" t="s">
-        <v>9</v>
-      </c>
-      <c r="F21">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="22" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A22" t="s">
+      <c r="C24" t="s">
+        <v>8</v>
+      </c>
+      <c r="D24">
+        <v>2</v>
+      </c>
+      <c r="E24" t="s">
+        <v>9</v>
+      </c>
+      <c r="F24">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A25" t="s">
         <v>31</v>
       </c>
-      <c r="B22" t="s">
+      <c r="B25" t="s">
         <v>39</v>
       </c>
-      <c r="C22" t="s">
-        <v>8</v>
-      </c>
-      <c r="D22">
-        <v>2</v>
-      </c>
-      <c r="E22" t="s">
-        <v>9</v>
-      </c>
-      <c r="F22">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="23" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A23" t="s">
+      <c r="C25" t="s">
+        <v>8</v>
+      </c>
+      <c r="D25">
+        <v>2</v>
+      </c>
+      <c r="E25" t="s">
+        <v>9</v>
+      </c>
+      <c r="F25">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A26" t="s">
         <v>32</v>
       </c>
-      <c r="B23" t="s">
+      <c r="B26" t="s">
         <v>40</v>
       </c>
-      <c r="C23" t="s">
-        <v>8</v>
-      </c>
-      <c r="D23">
-        <v>2</v>
-      </c>
-      <c r="E23" t="s">
-        <v>9</v>
-      </c>
-      <c r="F23">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="24" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A24" t="s">
+      <c r="C26" t="s">
+        <v>8</v>
+      </c>
+      <c r="D26">
+        <v>2</v>
+      </c>
+      <c r="E26" t="s">
+        <v>9</v>
+      </c>
+      <c r="F26">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="27" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A27" t="s">
         <v>33</v>
       </c>
-      <c r="B24" t="s">
+      <c r="B27" t="s">
         <v>41</v>
       </c>
-      <c r="C24" t="s">
-        <v>8</v>
-      </c>
-      <c r="D24">
-        <v>2</v>
-      </c>
-      <c r="E24" t="s">
-        <v>9</v>
-      </c>
-      <c r="F24">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="25" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A25" t="s">
+      <c r="C27" t="s">
+        <v>8</v>
+      </c>
+      <c r="D27">
+        <v>2</v>
+      </c>
+      <c r="E27" t="s">
+        <v>9</v>
+      </c>
+      <c r="F27">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="28" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A28" t="s">
         <v>34</v>
       </c>
-      <c r="B25" t="s">
+      <c r="B28" t="s">
         <v>42</v>
       </c>
-      <c r="C25" t="s">
-        <v>8</v>
-      </c>
-      <c r="D25">
-        <v>2</v>
-      </c>
-      <c r="E25" t="s">
-        <v>9</v>
-      </c>
-      <c r="F25">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="26" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A26" t="s">
+      <c r="C28" t="s">
+        <v>8</v>
+      </c>
+      <c r="D28">
+        <v>2</v>
+      </c>
+      <c r="E28" t="s">
+        <v>9</v>
+      </c>
+      <c r="F28">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A29" t="s">
         <v>35</v>
       </c>
-      <c r="B26" t="s">
+      <c r="B29" t="s">
         <v>43</v>
       </c>
-      <c r="C26" t="s">
-        <v>8</v>
-      </c>
-      <c r="D26">
-        <v>2</v>
-      </c>
-      <c r="E26" t="s">
-        <v>9</v>
-      </c>
-      <c r="F26">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="27" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A27" t="s">
+      <c r="C29" t="s">
+        <v>8</v>
+      </c>
+      <c r="D29">
+        <v>2</v>
+      </c>
+      <c r="E29" t="s">
+        <v>9</v>
+      </c>
+      <c r="F29">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A30" t="s">
         <v>36</v>
       </c>
-      <c r="B27" t="s">
+      <c r="B30" t="s">
         <v>44</v>
       </c>
-      <c r="C27" t="s">
-        <v>8</v>
-      </c>
-      <c r="D27">
-        <v>2</v>
-      </c>
-      <c r="E27" t="s">
-        <v>9</v>
-      </c>
-      <c r="F27">
+      <c r="C30" t="s">
+        <v>8</v>
+      </c>
+      <c r="D30">
+        <v>2</v>
+      </c>
+      <c r="E30" t="s">
+        <v>9</v>
+      </c>
+      <c r="F30">
         <v>0</v>
       </c>
     </row>

--- a/machine_config.xlsx
+++ b/machine_config.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\r03\Desktop\mitsubishi-fx5-try\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2A6B6158-D120-4F2C-B682-8FE89B67E2D9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5584AEBD-10E3-46C7-8414-F7D48A13A251}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{1BF7E079-436B-4EF4-9EEA-F82FDA08E9C8}"/>
   </bookViews>
@@ -32,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="144" uniqueCount="77">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="161" uniqueCount="83">
   <si>
     <t>機台名稱</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -330,6 +330,30 @@
   </si>
   <si>
     <t>10.10.1.62:5000</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>MJ1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>10.10.1.32:5000</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>MX3</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>MX11</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>10.10.1.3:5000</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>10.10.1.11:5000</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -704,10 +728,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{96A82F3B-0739-4B46-8DC5-C9EE2B40733D}">
-  <dimension ref="A1:N30"/>
+  <dimension ref="A1:N33"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G6" sqref="G6"/>
+      <selection activeCell="C4" sqref="C4:N4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.25"/>
@@ -770,10 +794,10 @@
     </row>
     <row r="2" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
-        <v>22</v>
+        <v>79</v>
       </c>
       <c r="B2" t="s">
-        <v>23</v>
+        <v>81</v>
       </c>
       <c r="C2" t="s">
         <v>16</v>
@@ -802,10 +826,10 @@
     </row>
     <row r="3" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="B3" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="C3" t="s">
         <v>16</v>
@@ -834,10 +858,10 @@
     </row>
     <row r="4" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A4" s="1" t="s">
-        <v>14</v>
+        <v>80</v>
       </c>
       <c r="B4" t="s">
-        <v>15</v>
+        <v>82</v>
       </c>
       <c r="C4" t="s">
         <v>16</v>
@@ -866,10 +890,10 @@
     </row>
     <row r="5" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A5" s="1" t="s">
-        <v>57</v>
+        <v>21</v>
       </c>
       <c r="B5" t="s">
-        <v>58</v>
+        <v>24</v>
       </c>
       <c r="C5" t="s">
         <v>16</v>
@@ -898,10 +922,10 @@
     </row>
     <row r="6" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A6" s="1" t="s">
-        <v>71</v>
+        <v>14</v>
       </c>
       <c r="B6" t="s">
-        <v>74</v>
+        <v>15</v>
       </c>
       <c r="C6" t="s">
         <v>16</v>
@@ -915,13 +939,25 @@
       <c r="F6">
         <v>0</v>
       </c>
+      <c r="K6" t="s">
+        <v>19</v>
+      </c>
+      <c r="L6">
+        <v>3</v>
+      </c>
+      <c r="M6" t="s">
+        <v>20</v>
+      </c>
+      <c r="N6">
+        <v>3</v>
+      </c>
     </row>
     <row r="7" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A7" s="1" t="s">
-        <v>72</v>
+        <v>57</v>
       </c>
       <c r="B7" t="s">
-        <v>75</v>
+        <v>58</v>
       </c>
       <c r="C7" t="s">
         <v>16</v>
@@ -935,13 +971,25 @@
       <c r="F7">
         <v>0</v>
       </c>
+      <c r="K7" t="s">
+        <v>19</v>
+      </c>
+      <c r="L7">
+        <v>3</v>
+      </c>
+      <c r="M7" t="s">
+        <v>20</v>
+      </c>
+      <c r="N7">
+        <v>3</v>
+      </c>
     </row>
     <row r="8" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A8" s="1" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="B8" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="C8" t="s">
         <v>16</v>
@@ -958,13 +1006,13 @@
     </row>
     <row r="9" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A9" s="1" t="s">
-        <v>45</v>
+        <v>72</v>
       </c>
       <c r="B9" t="s">
-        <v>49</v>
+        <v>75</v>
       </c>
       <c r="C9" t="s">
-        <v>53</v>
+        <v>16</v>
       </c>
       <c r="D9">
         <v>2</v>
@@ -978,13 +1026,13 @@
     </row>
     <row r="10" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A10" s="1" t="s">
-        <v>46</v>
+        <v>73</v>
       </c>
       <c r="B10" t="s">
-        <v>50</v>
+        <v>76</v>
       </c>
       <c r="C10" t="s">
-        <v>53</v>
+        <v>16</v>
       </c>
       <c r="D10">
         <v>2</v>
@@ -998,10 +1046,10 @@
     </row>
     <row r="11" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A11" s="1" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="B11" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="C11" t="s">
         <v>53</v>
@@ -1018,10 +1066,10 @@
     </row>
     <row r="12" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A12" s="1" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="B12" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="C12" t="s">
         <v>53</v>
@@ -1038,13 +1086,13 @@
     </row>
     <row r="13" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A13" s="1" t="s">
-        <v>63</v>
+        <v>47</v>
       </c>
       <c r="B13" t="s">
-        <v>65</v>
+        <v>51</v>
       </c>
       <c r="C13" t="s">
-        <v>8</v>
+        <v>53</v>
       </c>
       <c r="D13">
         <v>2</v>
@@ -1054,23 +1102,17 @@
       </c>
       <c r="F13">
         <v>0</v>
-      </c>
-      <c r="K13" t="s">
-        <v>59</v>
-      </c>
-      <c r="L13">
-        <v>3</v>
       </c>
     </row>
     <row r="14" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A14" s="1" t="s">
-        <v>64</v>
+        <v>48</v>
       </c>
       <c r="B14" t="s">
-        <v>66</v>
+        <v>52</v>
       </c>
       <c r="C14" t="s">
-        <v>8</v>
+        <v>53</v>
       </c>
       <c r="D14">
         <v>2</v>
@@ -1081,19 +1123,13 @@
       <c r="F14">
         <v>0</v>
       </c>
-      <c r="K14" t="s">
-        <v>59</v>
-      </c>
-      <c r="L14">
-        <v>3</v>
-      </c>
     </row>
     <row r="15" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A15" t="s">
-        <v>7</v>
+      <c r="A15" s="1" t="s">
+        <v>77</v>
       </c>
       <c r="B15" t="s">
-        <v>56</v>
+        <v>78</v>
       </c>
       <c r="C15" t="s">
         <v>8</v>
@@ -1115,11 +1151,11 @@
       </c>
     </row>
     <row r="16" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A16" t="s">
-        <v>61</v>
+      <c r="A16" s="1" t="s">
+        <v>63</v>
       </c>
       <c r="B16" t="s">
-        <v>62</v>
+        <v>65</v>
       </c>
       <c r="C16" t="s">
         <v>8</v>
@@ -1140,295 +1176,373 @@
         <v>3</v>
       </c>
     </row>
-    <row r="17" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A17" s="1" t="s">
+        <v>64</v>
+      </c>
+      <c r="B17" t="s">
+        <v>66</v>
+      </c>
+      <c r="C17" t="s">
+        <v>8</v>
+      </c>
+      <c r="D17">
+        <v>2</v>
+      </c>
+      <c r="E17" t="s">
+        <v>9</v>
+      </c>
+      <c r="F17">
+        <v>0</v>
+      </c>
+      <c r="K17" t="s">
+        <v>59</v>
+      </c>
+      <c r="L17">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="18" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A18" t="s">
+        <v>7</v>
+      </c>
+      <c r="B18" t="s">
+        <v>56</v>
+      </c>
+      <c r="C18" t="s">
+        <v>8</v>
+      </c>
+      <c r="D18">
+        <v>2</v>
+      </c>
+      <c r="E18" t="s">
+        <v>9</v>
+      </c>
+      <c r="F18">
+        <v>0</v>
+      </c>
+      <c r="K18" t="s">
+        <v>59</v>
+      </c>
+      <c r="L18">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="19" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A19" t="s">
+        <v>61</v>
+      </c>
+      <c r="B19" t="s">
+        <v>62</v>
+      </c>
+      <c r="C19" t="s">
+        <v>8</v>
+      </c>
+      <c r="D19">
+        <v>2</v>
+      </c>
+      <c r="E19" t="s">
+        <v>9</v>
+      </c>
+      <c r="F19">
+        <v>0</v>
+      </c>
+      <c r="K19" t="s">
+        <v>59</v>
+      </c>
+      <c r="L19">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="20" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A20" s="1" t="s">
         <v>25</v>
       </c>
-      <c r="B17" t="s">
+      <c r="B20" t="s">
         <v>27</v>
       </c>
-      <c r="C17" t="s">
-        <v>8</v>
-      </c>
-      <c r="D17">
-        <v>2</v>
-      </c>
-      <c r="E17" t="s">
-        <v>9</v>
-      </c>
-      <c r="F17">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="18" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A18" s="1" t="s">
+      <c r="C20" t="s">
+        <v>8</v>
+      </c>
+      <c r="D20">
+        <v>2</v>
+      </c>
+      <c r="E20" t="s">
+        <v>9</v>
+      </c>
+      <c r="F20">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A21" s="1" t="s">
         <v>26</v>
       </c>
-      <c r="B18" t="s">
+      <c r="B21" t="s">
         <v>28</v>
       </c>
-      <c r="C18" t="s">
-        <v>8</v>
-      </c>
-      <c r="D18">
-        <v>2</v>
-      </c>
-      <c r="E18" t="s">
-        <v>9</v>
-      </c>
-      <c r="F18">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="19" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A19" t="s">
+      <c r="C21" t="s">
+        <v>8</v>
+      </c>
+      <c r="D21">
+        <v>2</v>
+      </c>
+      <c r="E21" t="s">
+        <v>9</v>
+      </c>
+      <c r="F21">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="22" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A22" t="s">
         <v>6</v>
       </c>
-      <c r="B19" t="s">
+      <c r="B22" t="s">
         <v>13</v>
       </c>
-      <c r="C19" t="s">
-        <v>8</v>
-      </c>
-      <c r="D19">
-        <v>2</v>
-      </c>
-      <c r="E19" t="s">
-        <v>9</v>
-      </c>
-      <c r="F19">
-        <v>0</v>
-      </c>
-      <c r="G19" t="s">
+      <c r="C22" t="s">
+        <v>8</v>
+      </c>
+      <c r="D22">
+        <v>2</v>
+      </c>
+      <c r="E22" t="s">
+        <v>9</v>
+      </c>
+      <c r="F22">
+        <v>0</v>
+      </c>
+      <c r="G22" t="s">
         <v>10</v>
       </c>
-      <c r="H19">
-        <v>0</v>
-      </c>
-      <c r="I19" t="s">
+      <c r="H22">
+        <v>0</v>
+      </c>
+      <c r="I22" t="s">
         <v>11</v>
       </c>
-      <c r="J19">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="20" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A20" t="s">
+      <c r="J22">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="23" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A23" t="s">
         <v>54</v>
       </c>
-      <c r="B20" t="s">
+      <c r="B23" t="s">
         <v>55</v>
       </c>
-      <c r="C20" t="s">
-        <v>8</v>
-      </c>
-      <c r="D20">
-        <v>2</v>
-      </c>
-      <c r="E20" t="s">
-        <v>9</v>
-      </c>
-      <c r="F20">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="21" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A21" t="s">
+      <c r="C23" t="s">
+        <v>8</v>
+      </c>
+      <c r="D23">
+        <v>2</v>
+      </c>
+      <c r="E23" t="s">
+        <v>9</v>
+      </c>
+      <c r="F23">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="24" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A24" t="s">
         <v>67</v>
       </c>
-      <c r="B21" t="s">
+      <c r="B24" t="s">
         <v>69</v>
       </c>
-      <c r="C21" t="s">
-        <v>8</v>
-      </c>
-      <c r="D21">
-        <v>2</v>
-      </c>
-      <c r="E21" t="s">
-        <v>9</v>
-      </c>
-      <c r="F21">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="22" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A22" t="s">
+      <c r="C24" t="s">
+        <v>8</v>
+      </c>
+      <c r="D24">
+        <v>2</v>
+      </c>
+      <c r="E24" t="s">
+        <v>9</v>
+      </c>
+      <c r="F24">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A25" t="s">
         <v>68</v>
       </c>
-      <c r="B22" t="s">
+      <c r="B25" t="s">
         <v>70</v>
       </c>
-      <c r="C22" t="s">
-        <v>8</v>
-      </c>
-      <c r="D22">
-        <v>2</v>
-      </c>
-      <c r="E22" t="s">
-        <v>9</v>
-      </c>
-      <c r="F22">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="23" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A23" t="s">
+      <c r="C25" t="s">
+        <v>8</v>
+      </c>
+      <c r="D25">
+        <v>2</v>
+      </c>
+      <c r="E25" t="s">
+        <v>9</v>
+      </c>
+      <c r="F25">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A26" t="s">
         <v>29</v>
       </c>
-      <c r="B23" t="s">
+      <c r="B26" t="s">
         <v>37</v>
       </c>
-      <c r="C23" t="s">
-        <v>8</v>
-      </c>
-      <c r="D23">
-        <v>2</v>
-      </c>
-      <c r="E23" t="s">
-        <v>9</v>
-      </c>
-      <c r="F23">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="24" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A24" t="s">
+      <c r="C26" t="s">
+        <v>8</v>
+      </c>
+      <c r="D26">
+        <v>2</v>
+      </c>
+      <c r="E26" t="s">
+        <v>9</v>
+      </c>
+      <c r="F26">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="27" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A27" t="s">
         <v>30</v>
       </c>
-      <c r="B24" t="s">
+      <c r="B27" t="s">
         <v>38</v>
       </c>
-      <c r="C24" t="s">
-        <v>8</v>
-      </c>
-      <c r="D24">
-        <v>2</v>
-      </c>
-      <c r="E24" t="s">
-        <v>9</v>
-      </c>
-      <c r="F24">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="25" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A25" t="s">
+      <c r="C27" t="s">
+        <v>8</v>
+      </c>
+      <c r="D27">
+        <v>2</v>
+      </c>
+      <c r="E27" t="s">
+        <v>9</v>
+      </c>
+      <c r="F27">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="28" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A28" t="s">
         <v>31</v>
       </c>
-      <c r="B25" t="s">
+      <c r="B28" t="s">
         <v>39</v>
       </c>
-      <c r="C25" t="s">
-        <v>8</v>
-      </c>
-      <c r="D25">
-        <v>2</v>
-      </c>
-      <c r="E25" t="s">
-        <v>9</v>
-      </c>
-      <c r="F25">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="26" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A26" t="s">
+      <c r="C28" t="s">
+        <v>8</v>
+      </c>
+      <c r="D28">
+        <v>2</v>
+      </c>
+      <c r="E28" t="s">
+        <v>9</v>
+      </c>
+      <c r="F28">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A29" t="s">
         <v>32</v>
       </c>
-      <c r="B26" t="s">
+      <c r="B29" t="s">
         <v>40</v>
       </c>
-      <c r="C26" t="s">
-        <v>8</v>
-      </c>
-      <c r="D26">
-        <v>2</v>
-      </c>
-      <c r="E26" t="s">
-        <v>9</v>
-      </c>
-      <c r="F26">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="27" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A27" t="s">
+      <c r="C29" t="s">
+        <v>8</v>
+      </c>
+      <c r="D29">
+        <v>2</v>
+      </c>
+      <c r="E29" t="s">
+        <v>9</v>
+      </c>
+      <c r="F29">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A30" t="s">
         <v>33</v>
       </c>
-      <c r="B27" t="s">
+      <c r="B30" t="s">
         <v>41</v>
       </c>
-      <c r="C27" t="s">
-        <v>8</v>
-      </c>
-      <c r="D27">
-        <v>2</v>
-      </c>
-      <c r="E27" t="s">
-        <v>9</v>
-      </c>
-      <c r="F27">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="28" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A28" t="s">
+      <c r="C30" t="s">
+        <v>8</v>
+      </c>
+      <c r="D30">
+        <v>2</v>
+      </c>
+      <c r="E30" t="s">
+        <v>9</v>
+      </c>
+      <c r="F30">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A31" t="s">
         <v>34</v>
       </c>
-      <c r="B28" t="s">
+      <c r="B31" t="s">
         <v>42</v>
       </c>
-      <c r="C28" t="s">
-        <v>8</v>
-      </c>
-      <c r="D28">
-        <v>2</v>
-      </c>
-      <c r="E28" t="s">
-        <v>9</v>
-      </c>
-      <c r="F28">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="29" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A29" t="s">
+      <c r="C31" t="s">
+        <v>8</v>
+      </c>
+      <c r="D31">
+        <v>2</v>
+      </c>
+      <c r="E31" t="s">
+        <v>9</v>
+      </c>
+      <c r="F31">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A32" t="s">
         <v>35</v>
       </c>
-      <c r="B29" t="s">
+      <c r="B32" t="s">
         <v>43</v>
       </c>
-      <c r="C29" t="s">
-        <v>8</v>
-      </c>
-      <c r="D29">
-        <v>2</v>
-      </c>
-      <c r="E29" t="s">
-        <v>9</v>
-      </c>
-      <c r="F29">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="30" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A30" t="s">
+      <c r="C32" t="s">
+        <v>8</v>
+      </c>
+      <c r="D32">
+        <v>2</v>
+      </c>
+      <c r="E32" t="s">
+        <v>9</v>
+      </c>
+      <c r="F32">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="33" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A33" t="s">
         <v>36</v>
       </c>
-      <c r="B30" t="s">
+      <c r="B33" t="s">
         <v>44</v>
       </c>
-      <c r="C30" t="s">
-        <v>8</v>
-      </c>
-      <c r="D30">
-        <v>2</v>
-      </c>
-      <c r="E30" t="s">
-        <v>9</v>
-      </c>
-      <c r="F30">
+      <c r="C33" t="s">
+        <v>8</v>
+      </c>
+      <c r="D33">
+        <v>2</v>
+      </c>
+      <c r="E33" t="s">
+        <v>9</v>
+      </c>
+      <c r="F33">
         <v>0</v>
       </c>
     </row>

--- a/machine_config.xlsx
+++ b/machine_config.xlsx
@@ -8,14 +8,14 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\r03\Desktop\mitsubishi-fx5-try\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5584AEBD-10E3-46C7-8414-F7D48A13A251}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{04EB79B4-AFE9-4230-80A5-4D7439ACE2C6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{1BF7E079-436B-4EF4-9EEA-F82FDA08E9C8}"/>
   </bookViews>
   <sheets>
     <sheet name="工作表1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="191029" concurrentCalc="0"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -114,10 +114,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>D22</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>MX13</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -354,6 +350,10 @@
   </si>
   <si>
     <t>10.10.1.11:5000</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>D840</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -730,8 +730,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{96A82F3B-0739-4B46-8DC5-C9EE2B40733D}">
   <dimension ref="A1:N33"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C4" sqref="C4:N4"/>
+    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
+      <selection activeCell="O12" sqref="O12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.25"/>
@@ -783,7 +783,7 @@
         <v>17</v>
       </c>
       <c r="L1" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="M1" t="s">
         <v>18</v>
@@ -794,10 +794,10 @@
     </row>
     <row r="2" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="B2" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="C2" t="s">
         <v>16</v>
@@ -818,7 +818,7 @@
         <v>3</v>
       </c>
       <c r="M2" t="s">
-        <v>20</v>
+        <v>82</v>
       </c>
       <c r="N2">
         <v>3</v>
@@ -826,10 +826,10 @@
     </row>
     <row r="3" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="B3" t="s">
         <v>22</v>
-      </c>
-      <c r="B3" t="s">
-        <v>23</v>
       </c>
       <c r="C3" t="s">
         <v>16</v>
@@ -850,7 +850,7 @@
         <v>3</v>
       </c>
       <c r="M3" t="s">
-        <v>20</v>
+        <v>82</v>
       </c>
       <c r="N3">
         <v>3</v>
@@ -858,10 +858,10 @@
     </row>
     <row r="4" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A4" s="1" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="B4" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="C4" t="s">
         <v>16</v>
@@ -882,7 +882,7 @@
         <v>3</v>
       </c>
       <c r="M4" t="s">
-        <v>20</v>
+        <v>82</v>
       </c>
       <c r="N4">
         <v>3</v>
@@ -890,10 +890,10 @@
     </row>
     <row r="5" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A5" s="1" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B5" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="C5" t="s">
         <v>16</v>
@@ -914,7 +914,7 @@
         <v>3</v>
       </c>
       <c r="M5" t="s">
-        <v>20</v>
+        <v>82</v>
       </c>
       <c r="N5">
         <v>3</v>
@@ -946,7 +946,7 @@
         <v>3</v>
       </c>
       <c r="M6" t="s">
-        <v>20</v>
+        <v>82</v>
       </c>
       <c r="N6">
         <v>3</v>
@@ -954,10 +954,10 @@
     </row>
     <row r="7" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A7" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="B7" t="s">
         <v>57</v>
-      </c>
-      <c r="B7" t="s">
-        <v>58</v>
       </c>
       <c r="C7" t="s">
         <v>16</v>
@@ -978,7 +978,7 @@
         <v>3</v>
       </c>
       <c r="M7" t="s">
-        <v>20</v>
+        <v>82</v>
       </c>
       <c r="N7">
         <v>3</v>
@@ -986,10 +986,10 @@
     </row>
     <row r="8" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A8" s="1" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="B8" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="C8" t="s">
         <v>16</v>
@@ -1006,10 +1006,10 @@
     </row>
     <row r="9" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A9" s="1" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="B9" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="C9" t="s">
         <v>16</v>
@@ -1026,10 +1026,10 @@
     </row>
     <row r="10" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A10" s="1" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="B10" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="C10" t="s">
         <v>16</v>
@@ -1046,13 +1046,13 @@
     </row>
     <row r="11" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A11" s="1" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="B11" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="C11" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="D11">
         <v>2</v>
@@ -1066,13 +1066,13 @@
     </row>
     <row r="12" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A12" s="1" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="B12" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="C12" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="D12">
         <v>2</v>
@@ -1086,13 +1086,13 @@
     </row>
     <row r="13" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A13" s="1" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="B13" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="C13" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="D13">
         <v>2</v>
@@ -1106,13 +1106,13 @@
     </row>
     <row r="14" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A14" s="1" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="B14" t="s">
+        <v>51</v>
+      </c>
+      <c r="C14" t="s">
         <v>52</v>
-      </c>
-      <c r="C14" t="s">
-        <v>53</v>
       </c>
       <c r="D14">
         <v>2</v>
@@ -1126,11 +1126,11 @@
     </row>
     <row r="15" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A15" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="B15" t="s">
         <v>77</v>
       </c>
-      <c r="B15" t="s">
-        <v>78</v>
-      </c>
       <c r="C15" t="s">
         <v>8</v>
       </c>
@@ -1144,7 +1144,7 @@
         <v>0</v>
       </c>
       <c r="K15" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="L15">
         <v>3</v>
@@ -1152,10 +1152,10 @@
     </row>
     <row r="16" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A16" s="1" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="B16" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="C16" t="s">
         <v>8</v>
@@ -1170,7 +1170,7 @@
         <v>0</v>
       </c>
       <c r="K16" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="L16">
         <v>3</v>
@@ -1178,10 +1178,10 @@
     </row>
     <row r="17" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A17" s="1" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="B17" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="C17" t="s">
         <v>8</v>
@@ -1196,7 +1196,7 @@
         <v>0</v>
       </c>
       <c r="K17" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="L17">
         <v>3</v>
@@ -1207,7 +1207,7 @@
         <v>7</v>
       </c>
       <c r="B18" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="C18" t="s">
         <v>8</v>
@@ -1222,7 +1222,7 @@
         <v>0</v>
       </c>
       <c r="K18" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="L18">
         <v>3</v>
@@ -1230,11 +1230,11 @@
     </row>
     <row r="19" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
+        <v>60</v>
+      </c>
+      <c r="B19" t="s">
         <v>61</v>
       </c>
-      <c r="B19" t="s">
-        <v>62</v>
-      </c>
       <c r="C19" t="s">
         <v>8</v>
       </c>
@@ -1248,7 +1248,7 @@
         <v>0</v>
       </c>
       <c r="K19" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="L19">
         <v>3</v>
@@ -1256,10 +1256,10 @@
     </row>
     <row r="20" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A20" s="1" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="B20" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="C20" t="s">
         <v>8</v>
@@ -1276,10 +1276,10 @@
     </row>
     <row r="21" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A21" s="1" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="B21" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="C21" t="s">
         <v>8</v>
@@ -1328,10 +1328,10 @@
     </row>
     <row r="23" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
+        <v>53</v>
+      </c>
+      <c r="B23" t="s">
         <v>54</v>
-      </c>
-      <c r="B23" t="s">
-        <v>55</v>
       </c>
       <c r="C23" t="s">
         <v>8</v>
@@ -1348,10 +1348,10 @@
     </row>
     <row r="24" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="B24" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="C24" t="s">
         <v>8</v>
@@ -1368,10 +1368,10 @@
     </row>
     <row r="25" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="B25" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="C25" t="s">
         <v>8</v>
@@ -1388,10 +1388,10 @@
     </row>
     <row r="26" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="B26" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="C26" t="s">
         <v>8</v>
@@ -1408,10 +1408,10 @@
     </row>
     <row r="27" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="B27" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="C27" t="s">
         <v>8</v>
@@ -1428,10 +1428,10 @@
     </row>
     <row r="28" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="B28" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="C28" t="s">
         <v>8</v>
@@ -1448,10 +1448,10 @@
     </row>
     <row r="29" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="B29" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="C29" t="s">
         <v>8</v>
@@ -1468,10 +1468,10 @@
     </row>
     <row r="30" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="B30" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="C30" t="s">
         <v>8</v>
@@ -1488,10 +1488,10 @@
     </row>
     <row r="31" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="B31" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="C31" t="s">
         <v>8</v>
@@ -1508,10 +1508,10 @@
     </row>
     <row r="32" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A32" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="B32" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="C32" t="s">
         <v>8</v>
@@ -1528,10 +1528,10 @@
     </row>
     <row r="33" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A33" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="B33" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="C33" t="s">
         <v>8</v>
